--- a/config_5.25/extra_award_server.xlsx
+++ b/config_5.25/extra_award_server.xlsx
@@ -175,12 +175,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,13 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -210,6 +203,36 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,7 +244,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -237,43 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -303,47 +335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,7 +344,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,13 +406,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,108 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,7 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,13 +538,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +598,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -622,52 +639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,16 +661,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,139 +712,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -866,14 +859,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,7 +885,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -931,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1291,3263 +1281,3263 @@
       </c>
     </row>
     <row r="2" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B2" s="18"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B3" s="18"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B4" s="18"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B5" s="18"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="43.5" customHeight="1" spans="2:5">
-      <c r="B6" s="18"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="18"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="6"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="6"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="18"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="18" customFormat="1" spans="3:5">
-      <c r="C12" s="8"/>
+    <row r="12" s="17" customFormat="1" spans="3:5">
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="6"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="18" customFormat="1" spans="3:5">
-      <c r="C14" s="8"/>
+    <row r="14" s="17" customFormat="1" spans="3:5">
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="6"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="2:5">
-      <c r="B16" s="18"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="6"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="18"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="6"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="18"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="6"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="18" customFormat="1" spans="3:5">
-      <c r="C19" s="8"/>
+    <row r="19" s="17" customFormat="1" spans="3:5">
+      <c r="C19" s="6"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="18" customFormat="1" spans="3:5">
-      <c r="C20" s="8"/>
+    <row r="20" s="17" customFormat="1" spans="3:5">
+      <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="18" customFormat="1" spans="3:5">
-      <c r="C21" s="8"/>
+    <row r="21" s="17" customFormat="1" spans="3:5">
+      <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="18" customFormat="1" spans="3:5">
-      <c r="C22" s="8"/>
+    <row r="22" s="17" customFormat="1" spans="3:5">
+      <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="18" customFormat="1" spans="3:5">
-      <c r="C23" s="8"/>
+    <row r="23" s="17" customFormat="1" spans="3:5">
+      <c r="C23" s="6"/>
       <c r="D23" s="2"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="18" customFormat="1" spans="3:5">
-      <c r="C24" s="8"/>
+    <row r="24" s="17" customFormat="1" spans="3:5">
+      <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="18" customFormat="1" spans="3:5">
-      <c r="C25" s="8"/>
+    <row r="25" s="17" customFormat="1" spans="3:5">
+      <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="18" customFormat="1" spans="3:5">
-      <c r="C26" s="8"/>
+    <row r="26" s="17" customFormat="1" spans="3:5">
+      <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="18" customFormat="1" spans="3:5">
-      <c r="C27" s="8"/>
+    <row r="27" s="17" customFormat="1" spans="3:5">
+      <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="18" customFormat="1" spans="3:5">
-      <c r="C28" s="8"/>
+    <row r="28" s="17" customFormat="1" spans="3:5">
+      <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="18" customFormat="1" spans="3:5">
-      <c r="C29" s="8"/>
+    <row r="29" s="17" customFormat="1" spans="3:5">
+      <c r="C29" s="6"/>
       <c r="D29" s="2"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="18" customFormat="1" spans="3:5">
-      <c r="C30" s="8"/>
+    <row r="30" s="17" customFormat="1" spans="3:5">
+      <c r="C30" s="6"/>
       <c r="D30" s="2"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="18" customFormat="1" spans="3:5">
-      <c r="C31" s="8"/>
+    <row r="31" s="17" customFormat="1" spans="3:5">
+      <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="18" customFormat="1" spans="3:5">
-      <c r="C32" s="8"/>
+    <row r="32" s="17" customFormat="1" spans="3:5">
+      <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="18" customFormat="1" spans="3:5">
-      <c r="C33" s="8"/>
+    <row r="33" s="17" customFormat="1" spans="3:5">
+      <c r="C33" s="6"/>
       <c r="D33" s="2"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="18" customFormat="1" spans="3:5">
-      <c r="C34" s="8"/>
+    <row r="34" s="17" customFormat="1" spans="3:5">
+      <c r="C34" s="6"/>
       <c r="D34" s="2"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="18" customFormat="1" spans="3:5">
-      <c r="C35" s="8"/>
+    <row r="35" s="17" customFormat="1" spans="3:5">
+      <c r="C35" s="6"/>
       <c r="D35" s="2"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="18" customFormat="1" spans="3:5">
-      <c r="C36" s="8"/>
+    <row r="36" s="17" customFormat="1" spans="3:5">
+      <c r="C36" s="6"/>
       <c r="D36" s="2"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="18" customFormat="1" spans="3:5">
-      <c r="C37" s="8"/>
+    <row r="37" s="17" customFormat="1" spans="3:5">
+      <c r="C37" s="6"/>
       <c r="D37" s="2"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="18" customFormat="1" spans="3:5">
-      <c r="C38" s="8"/>
+    <row r="38" s="17" customFormat="1" spans="3:5">
+      <c r="C38" s="6"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="18" customFormat="1" spans="3:5">
-      <c r="C39" s="8"/>
+    <row r="39" s="17" customFormat="1" spans="3:5">
+      <c r="C39" s="6"/>
       <c r="D39" s="2"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="18" customFormat="1" spans="3:5">
-      <c r="C40" s="8"/>
+    <row r="40" s="17" customFormat="1" spans="3:5">
+      <c r="C40" s="6"/>
       <c r="D40" s="2"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="18" customFormat="1" spans="3:5">
-      <c r="C41" s="8"/>
+    <row r="41" s="17" customFormat="1" spans="3:5">
+      <c r="C41" s="6"/>
       <c r="D41" s="2"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="18" customFormat="1" spans="3:5">
-      <c r="C42" s="8"/>
+    <row r="42" s="17" customFormat="1" spans="3:5">
+      <c r="C42" s="6"/>
       <c r="D42" s="2"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="18" customFormat="1" spans="3:5">
-      <c r="C43" s="8"/>
+    <row r="43" s="17" customFormat="1" spans="3:5">
+      <c r="C43" s="6"/>
       <c r="D43" s="2"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="18" customFormat="1" spans="3:5">
-      <c r="C44" s="8"/>
+    <row r="44" s="17" customFormat="1" spans="3:5">
+      <c r="C44" s="6"/>
       <c r="D44" s="2"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="18" customFormat="1" spans="3:5">
-      <c r="C45" s="8"/>
+    <row r="45" s="17" customFormat="1" spans="3:5">
+      <c r="C45" s="6"/>
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="21" customFormat="1" spans="2:5">
-      <c r="B46" s="18"/>
-      <c r="C46" s="8"/>
+    <row r="46" s="20" customFormat="1" spans="2:5">
+      <c r="B46" s="17"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="2"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="18"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="18"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="18"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="18"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="18"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="18"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="18"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="18"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="5"/>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="18"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="18"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="18"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="18"/>
-      <c r="C68" s="8"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="18"/>
-      <c r="C70" s="8"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="18"/>
-      <c r="C72" s="8"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="18"/>
-      <c r="C73" s="8"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="18"/>
-      <c r="C74" s="8"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="6"/>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="18"/>
-      <c r="C75" s="8"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="6"/>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="18"/>
-      <c r="C76" s="8"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="18"/>
-      <c r="C77" s="8"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="18"/>
-      <c r="C78" s="8"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="8"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="18"/>
-      <c r="C80" s="8"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="18"/>
-      <c r="C81" s="8"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="18"/>
-      <c r="C82" s="8"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="18"/>
-      <c r="C83" s="8"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="18"/>
-      <c r="C84" s="8"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="18"/>
-      <c r="C85" s="8"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="6"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="18"/>
-      <c r="C86" s="8"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="6"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="18"/>
-      <c r="C87" s="8"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="6"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="18"/>
-      <c r="C88" s="8"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="6"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="18"/>
-      <c r="C89" s="8"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="6"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="18"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="5"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="18"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="5"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="18"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="18"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="5"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="5"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="5"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="18"/>
-      <c r="C96" s="8"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="6"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="5"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="18"/>
-      <c r="C98" s="8"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="6"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="18"/>
-      <c r="C99" s="8"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="6"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="18"/>
-      <c r="C100" s="8"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="6"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="18"/>
-      <c r="C101" s="8"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="6"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="18"/>
-      <c r="C102" s="8"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="6"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="18"/>
-      <c r="C103" s="8"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="6"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="18"/>
-      <c r="C104" s="8"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="6"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="18"/>
-      <c r="C105" s="8"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="6"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="18"/>
-      <c r="C106" s="8"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="18"/>
-      <c r="C107" s="8"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="18"/>
-      <c r="C108" s="8"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="6"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="18"/>
-      <c r="C109" s="8"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="6"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="18"/>
-      <c r="C110" s="8"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="6"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="18"/>
-      <c r="C111" s="8"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="6"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="18"/>
-      <c r="C112" s="8"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="6"/>
     </row>
     <row r="113" spans="2:3">
-      <c r="B113" s="18"/>
-      <c r="C113" s="8"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="6"/>
     </row>
     <row r="114" spans="2:3">
-      <c r="B114" s="18"/>
-      <c r="C114" s="8"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="6"/>
     </row>
     <row r="115" spans="2:3">
-      <c r="B115" s="18"/>
-      <c r="C115" s="8"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="6"/>
     </row>
     <row r="116" spans="2:3">
-      <c r="B116" s="18"/>
-      <c r="C116" s="8"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="6"/>
     </row>
     <row r="117" spans="2:3">
-      <c r="B117" s="18"/>
-      <c r="C117" s="8"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="6"/>
     </row>
     <row r="118" spans="2:3">
-      <c r="B118" s="18"/>
-      <c r="C118" s="8"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="6"/>
     </row>
     <row r="119" spans="2:3">
-      <c r="B119" s="18"/>
-      <c r="C119" s="8"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="2:3">
-      <c r="B120" s="18"/>
-      <c r="C120" s="8"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121" spans="2:3">
-      <c r="B121" s="18"/>
-      <c r="C121" s="8"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122" spans="2:3">
-      <c r="B122" s="18"/>
-      <c r="C122" s="8"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="6"/>
     </row>
     <row r="123" spans="2:3">
-      <c r="B123" s="18"/>
-      <c r="C123" s="8"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="6"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="23"/>
-      <c r="C124" s="8"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="6"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="23"/>
-      <c r="C125" s="8"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="6"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="23"/>
-      <c r="C126" s="8"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="6"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="23"/>
-      <c r="C127" s="8"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="23"/>
-      <c r="C128" s="8"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="6"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="23"/>
-      <c r="C129" s="8"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="6"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="23"/>
-      <c r="C130" s="8"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="6"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="23"/>
-      <c r="C131" s="8"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="2:3">
-      <c r="B132" s="18"/>
-      <c r="C132" s="8"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133" spans="2:3">
-      <c r="B133" s="18"/>
-      <c r="C133" s="8"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="6"/>
     </row>
     <row r="134" spans="2:3">
-      <c r="B134" s="18"/>
-      <c r="C134" s="8"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="6"/>
     </row>
     <row r="135" spans="2:3">
-      <c r="B135" s="18"/>
-      <c r="C135" s="8"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="6"/>
     </row>
     <row r="136" spans="2:3">
-      <c r="B136" s="18"/>
-      <c r="C136" s="8"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="6"/>
     </row>
     <row r="137" spans="2:3">
-      <c r="B137" s="18"/>
-      <c r="C137" s="8"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="2:3">
-      <c r="B138" s="18"/>
-      <c r="C138" s="8"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="6"/>
     </row>
     <row r="139" spans="2:3">
-      <c r="B139" s="18"/>
-      <c r="C139" s="8"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="2:3">
-      <c r="B140" s="18"/>
-      <c r="C140" s="8"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141" spans="2:3">
-      <c r="B141" s="18"/>
-      <c r="C141" s="8"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="2:3">
-      <c r="B142" s="18"/>
-      <c r="C142" s="8"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="6"/>
     </row>
     <row r="143" spans="2:3">
-      <c r="B143" s="18"/>
-      <c r="C143" s="8"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="6"/>
     </row>
     <row r="144" spans="2:3">
-      <c r="B144" s="18"/>
-      <c r="C144" s="8"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="6"/>
     </row>
     <row r="145" spans="2:3">
-      <c r="B145" s="18"/>
-      <c r="C145" s="8"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="2:3">
-      <c r="B146" s="18"/>
-      <c r="C146" s="8"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="6"/>
     </row>
     <row r="147" spans="2:3">
-      <c r="B147" s="18"/>
-      <c r="C147" s="8"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="2:3">
-      <c r="B148" s="18"/>
-      <c r="C148" s="8"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="6"/>
     </row>
     <row r="149" spans="2:3">
-      <c r="B149" s="18"/>
-      <c r="C149" s="8"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="2:3">
-      <c r="B150" s="18"/>
-      <c r="C150" s="8"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="6"/>
     </row>
     <row r="151" spans="2:3">
-      <c r="B151" s="18"/>
-      <c r="C151" s="8"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="2:3">
-      <c r="B152" s="18"/>
-      <c r="C152" s="8"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="18"/>
-      <c r="C153" s="8"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="18"/>
-      <c r="C154" s="8"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="18"/>
-      <c r="C155" s="8"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="6"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="18"/>
-      <c r="C156" s="8"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="18"/>
-      <c r="C157" s="8"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="18"/>
-      <c r="C158" s="8"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="6"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="18"/>
-      <c r="C159" s="8"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="6"/>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="18"/>
-      <c r="C160" s="8"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="6"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="18"/>
-      <c r="C161" s="8"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="6"/>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="18"/>
-      <c r="C162" s="8"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="6"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="18"/>
-      <c r="C163" s="8"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="18"/>
-      <c r="C164" s="8"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="6"/>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="18"/>
-      <c r="C165" s="8"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="6"/>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="18"/>
-      <c r="C166" s="8"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="6"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="18"/>
-      <c r="C167" s="8"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="6"/>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="18"/>
-      <c r="C168" s="8"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="6"/>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="18"/>
-      <c r="C169" s="8"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="18"/>
-      <c r="C170" s="8"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="6"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="18"/>
-      <c r="C171" s="8"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="6"/>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="18"/>
-      <c r="C172" s="8"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="6"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="18"/>
-      <c r="C173" s="8"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="6"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="18"/>
-      <c r="C174" s="8"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="6"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="18"/>
-      <c r="C175" s="8"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="6"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="18"/>
-      <c r="C176" s="8"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="6"/>
     </row>
     <row r="177" spans="2:3">
-      <c r="B177" s="18"/>
-      <c r="C177" s="8"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="6"/>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
       <c r="C179" s="5"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
       <c r="C180" s="5"/>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
       <c r="C181" s="5"/>
     </row>
     <row r="182" spans="2:3">
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
       <c r="C182" s="5"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="23"/>
-      <c r="C183" s="8"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="6"/>
     </row>
     <row r="184" spans="2:3">
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
       <c r="C184" s="5"/>
     </row>
     <row r="185" spans="2:3">
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="5"/>
     </row>
     <row r="186" spans="2:3">
-      <c r="B186" s="18"/>
+      <c r="B186" s="17"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="2:3">
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
       <c r="C187" s="5"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="18"/>
-      <c r="C188" s="8"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="6"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="18"/>
+      <c r="B189" s="17"/>
       <c r="C189" s="5"/>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="18"/>
-      <c r="C190" s="8"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="6"/>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="18"/>
-      <c r="C191" s="8"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="6"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="21"/>
-      <c r="C192" s="8"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="6"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="21"/>
-      <c r="C193" s="8"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="6"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="21"/>
-      <c r="C194" s="8"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="6"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="21"/>
-      <c r="C195" s="8"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="6"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="21"/>
-      <c r="C196" s="8"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="6"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="21"/>
-      <c r="C197" s="8"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="6"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="21"/>
-      <c r="C198" s="8"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="6"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="18"/>
-      <c r="C199" s="8"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="6"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="18"/>
-      <c r="C200" s="8"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="6"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="18"/>
-      <c r="C201" s="8"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="6"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="18"/>
-      <c r="C202" s="8"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="6"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="18"/>
-      <c r="C203" s="8"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="6"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="18"/>
-      <c r="C204" s="8"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="6"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="18"/>
-      <c r="C205" s="8"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="6"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="18"/>
-      <c r="C206" s="8"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="6"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="18"/>
-      <c r="C207" s="8"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="6"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="18"/>
-      <c r="C208" s="19"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="18"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="18"/>
-      <c r="C209" s="19"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="18"/>
-      <c r="C210" s="19"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="18"/>
-      <c r="C211" s="19"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="18"/>
-      <c r="C212" s="19"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="18"/>
-      <c r="C213" s="19"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="18"/>
-      <c r="C214" s="19"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="18"/>
-      <c r="C215" s="19"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="18"/>
-      <c r="C216" s="19"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="18"/>
-      <c r="C217" s="19"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="18"/>
-      <c r="C218" s="19"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="18"/>
-      <c r="C219" s="19"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="18"/>
-      <c r="C220" s="19"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="18"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="18"/>
-      <c r="C221" s="19"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="18"/>
-      <c r="C222" s="19"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="18"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="18"/>
-      <c r="C223" s="19"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="18"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="18"/>
-      <c r="C224" s="19"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="18"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="18"/>
-      <c r="C225" s="19"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="18"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" s="18"/>
-      <c r="C226" s="19"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="18"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" s="18"/>
-      <c r="C227" s="19"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="17"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="17"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" s="18"/>
-      <c r="C230" s="18"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="18"/>
-      <c r="C231" s="18"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="18"/>
-      <c r="C235" s="18"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="18"/>
-      <c r="C236" s="18"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="18"/>
-      <c r="C237" s="18"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="18"/>
-      <c r="C238" s="18"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="18"/>
-      <c r="C239" s="18"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="18"/>
-      <c r="C243" s="8"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="6"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="18"/>
-      <c r="C244" s="8"/>
+      <c r="B244" s="17"/>
+      <c r="C244" s="6"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="18"/>
-      <c r="C245" s="8"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="6"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="18"/>
-      <c r="C246" s="8"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="6"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="18"/>
-      <c r="C247" s="8"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="6"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="18"/>
-      <c r="C248" s="8"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="6"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="18"/>
-      <c r="C249" s="8"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="6"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" s="18"/>
-      <c r="C250" s="8"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="6"/>
     </row>
     <row r="251" spans="2:3">
-      <c r="B251" s="18"/>
-      <c r="C251" s="8"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="6"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="18"/>
-      <c r="C252" s="8"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="6"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="18"/>
-      <c r="C253" s="8"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="6"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="18"/>
-      <c r="C254" s="8"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="6"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="18"/>
-      <c r="C255" s="8"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="6"/>
     </row>
     <row r="256" spans="2:3">
-      <c r="B256" s="18"/>
-      <c r="C256" s="8"/>
+      <c r="B256" s="17"/>
+      <c r="C256" s="6"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" s="18"/>
-      <c r="C257" s="8"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="6"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="18"/>
-      <c r="C258" s="8"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="6"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="18"/>
-      <c r="C259" s="8"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="6"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="18"/>
-      <c r="C260" s="8"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="6"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="18"/>
-      <c r="C261" s="8"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="6"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="18"/>
-      <c r="C262" s="8"/>
+      <c r="B262" s="17"/>
+      <c r="C262" s="6"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="18"/>
-      <c r="C263" s="8"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="6"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="18"/>
-      <c r="C264" s="8"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="6"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="18"/>
-      <c r="C265" s="8"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="6"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="18"/>
-      <c r="C266" s="8"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="6"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="18"/>
-      <c r="C267" s="8"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="6"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="18"/>
-      <c r="C268" s="19"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="18"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="18"/>
-      <c r="C269" s="19"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="18"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="18"/>
-      <c r="C270" s="8"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="6"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="18"/>
-      <c r="C271" s="8"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="6"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="18"/>
-      <c r="C272" s="8"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="6"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="18"/>
-      <c r="C273" s="8"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="6"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="18"/>
-      <c r="C274" s="8"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="6"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="18"/>
-      <c r="C275" s="8"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="6"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="18"/>
-      <c r="C276" s="8"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="6"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="18"/>
-      <c r="C277" s="8"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="6"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="18"/>
-      <c r="C278" s="8"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="6"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="18"/>
-      <c r="C279" s="8"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="6"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="18"/>
-      <c r="C280" s="8"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="6"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="18"/>
-      <c r="C281" s="8"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="6"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="18"/>
+      <c r="B282" s="17"/>
       <c r="C282" s="5"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="18"/>
+      <c r="B283" s="17"/>
       <c r="C283" s="5"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="18"/>
+      <c r="B284" s="17"/>
       <c r="C284" s="5"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="18"/>
+      <c r="B285" s="17"/>
       <c r="C285" s="5"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="18"/>
+      <c r="B286" s="17"/>
       <c r="C286" s="5"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="18"/>
+      <c r="B287" s="17"/>
       <c r="C287" s="5"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="18"/>
+      <c r="B288" s="17"/>
       <c r="C288" s="5"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="18"/>
+      <c r="B289" s="17"/>
       <c r="C289" s="5"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="18"/>
+      <c r="B290" s="17"/>
       <c r="C290" s="5"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="18"/>
+      <c r="B291" s="17"/>
       <c r="C291" s="5"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="18"/>
+      <c r="B292" s="17"/>
       <c r="C292" s="5"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="18"/>
+      <c r="B293" s="17"/>
       <c r="C293" s="5"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="18"/>
+      <c r="B294" s="17"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="18"/>
+      <c r="B295" s="17"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="18"/>
+      <c r="B296" s="17"/>
       <c r="C296" s="5"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="18"/>
-      <c r="C297" s="8"/>
+      <c r="B297" s="17"/>
+      <c r="C297" s="6"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="18"/>
-      <c r="C298" s="8"/>
+      <c r="B298" s="17"/>
+      <c r="C298" s="6"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="18"/>
-      <c r="C299" s="8"/>
+      <c r="B299" s="17"/>
+      <c r="C299" s="6"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="18"/>
-      <c r="C300" s="8"/>
+      <c r="B300" s="17"/>
+      <c r="C300" s="6"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="18"/>
-      <c r="C301" s="8"/>
+      <c r="B301" s="17"/>
+      <c r="C301" s="6"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="18"/>
+      <c r="B302" s="17"/>
       <c r="C302" s="5"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="18"/>
+      <c r="B303" s="17"/>
       <c r="C303" s="5"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="18"/>
+      <c r="B304" s="17"/>
       <c r="C304" s="5"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="18"/>
+      <c r="B305" s="17"/>
       <c r="C305" s="5"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="18"/>
+      <c r="B306" s="17"/>
       <c r="C306" s="5"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="18"/>
-      <c r="C307" s="8"/>
+      <c r="B307" s="17"/>
+      <c r="C307" s="6"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="18"/>
-      <c r="C308" s="8"/>
+      <c r="B308" s="17"/>
+      <c r="C308" s="6"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="18"/>
-      <c r="C309" s="8"/>
+      <c r="B309" s="17"/>
+      <c r="C309" s="6"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="18"/>
-      <c r="C310" s="8"/>
+      <c r="B310" s="17"/>
+      <c r="C310" s="6"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="18"/>
-      <c r="C311" s="8"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="6"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="18"/>
-      <c r="C312" s="8"/>
+      <c r="B312" s="17"/>
+      <c r="C312" s="6"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="18"/>
+      <c r="B313" s="17"/>
       <c r="C313" s="5"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="18"/>
+      <c r="B314" s="17"/>
       <c r="C314" s="5"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="18"/>
+      <c r="B315" s="17"/>
       <c r="C315" s="5"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="18"/>
+      <c r="B316" s="17"/>
       <c r="C316" s="5"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="18"/>
+      <c r="B317" s="17"/>
       <c r="C317" s="5"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="18"/>
+      <c r="B318" s="17"/>
       <c r="C318" s="5"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="18"/>
+      <c r="B319" s="17"/>
       <c r="C319" s="5"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="18"/>
-      <c r="C320" s="8"/>
+      <c r="B320" s="17"/>
+      <c r="C320" s="6"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="18"/>
-      <c r="C321" s="8"/>
+      <c r="B321" s="17"/>
+      <c r="C321" s="6"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="18"/>
-      <c r="C322" s="8"/>
+      <c r="B322" s="17"/>
+      <c r="C322" s="6"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="18"/>
+      <c r="B323" s="17"/>
       <c r="C323" s="5"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="18"/>
+      <c r="B324" s="17"/>
       <c r="C324" s="5"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="18"/>
+      <c r="B325" s="17"/>
       <c r="C325" s="5"/>
     </row>
     <row r="326" spans="2:3">
-      <c r="B326" s="18"/>
+      <c r="B326" s="17"/>
       <c r="C326" s="5"/>
     </row>
     <row r="327" spans="2:3">
-      <c r="B327" s="18"/>
+      <c r="B327" s="17"/>
       <c r="C327" s="5"/>
     </row>
     <row r="328" spans="2:3">
-      <c r="B328" s="18"/>
-      <c r="C328" s="8"/>
+      <c r="B328" s="17"/>
+      <c r="C328" s="6"/>
     </row>
     <row r="329" spans="2:3">
-      <c r="B329" s="18"/>
-      <c r="C329" s="8"/>
+      <c r="B329" s="17"/>
+      <c r="C329" s="6"/>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" s="18"/>
-      <c r="C330" s="8"/>
+      <c r="B330" s="17"/>
+      <c r="C330" s="6"/>
     </row>
     <row r="331" spans="2:3">
-      <c r="B331" s="18"/>
-      <c r="C331" s="8"/>
+      <c r="B331" s="17"/>
+      <c r="C331" s="6"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" s="18"/>
-      <c r="C332" s="8"/>
+      <c r="B332" s="17"/>
+      <c r="C332" s="6"/>
     </row>
     <row r="333" spans="2:3">
-      <c r="B333" s="18"/>
-      <c r="C333" s="8"/>
+      <c r="B333" s="17"/>
+      <c r="C333" s="6"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="18"/>
-      <c r="C334" s="8"/>
+      <c r="B334" s="17"/>
+      <c r="C334" s="6"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="18"/>
-      <c r="C335" s="8"/>
+      <c r="B335" s="17"/>
+      <c r="C335" s="6"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="18"/>
-      <c r="C336" s="8"/>
+      <c r="B336" s="17"/>
+      <c r="C336" s="6"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="18"/>
-      <c r="C337" s="8"/>
+      <c r="B337" s="17"/>
+      <c r="C337" s="6"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="18"/>
-      <c r="C338" s="8"/>
+      <c r="B338" s="17"/>
+      <c r="C338" s="6"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="18"/>
-      <c r="C339" s="8"/>
+      <c r="B339" s="17"/>
+      <c r="C339" s="6"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="18"/>
-      <c r="C340" s="8"/>
+      <c r="B340" s="17"/>
+      <c r="C340" s="6"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="18"/>
-      <c r="C341" s="8"/>
+      <c r="B341" s="17"/>
+      <c r="C341" s="6"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="18"/>
-      <c r="C342" s="8"/>
+      <c r="B342" s="17"/>
+      <c r="C342" s="6"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="18"/>
-      <c r="C343" s="8"/>
+      <c r="B343" s="17"/>
+      <c r="C343" s="6"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="18"/>
-      <c r="C344" s="8"/>
+      <c r="B344" s="17"/>
+      <c r="C344" s="6"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="18"/>
-      <c r="C345" s="8"/>
+      <c r="B345" s="17"/>
+      <c r="C345" s="6"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="18"/>
-      <c r="C346" s="8"/>
+      <c r="B346" s="17"/>
+      <c r="C346" s="6"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="18"/>
-      <c r="C347" s="8"/>
+      <c r="B347" s="17"/>
+      <c r="C347" s="6"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="18"/>
-      <c r="C348" s="8"/>
+      <c r="B348" s="17"/>
+      <c r="C348" s="6"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="18"/>
-      <c r="C349" s="8"/>
+      <c r="B349" s="17"/>
+      <c r="C349" s="6"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="18"/>
-      <c r="C350" s="8"/>
+      <c r="B350" s="17"/>
+      <c r="C350" s="6"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="18"/>
-      <c r="C351" s="8"/>
+      <c r="B351" s="17"/>
+      <c r="C351" s="6"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="18"/>
-      <c r="C352" s="8"/>
+      <c r="B352" s="17"/>
+      <c r="C352" s="6"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="18"/>
-      <c r="C353" s="8"/>
+      <c r="B353" s="17"/>
+      <c r="C353" s="6"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="18"/>
-      <c r="C354" s="8"/>
+      <c r="B354" s="17"/>
+      <c r="C354" s="6"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="18"/>
-      <c r="C355" s="8"/>
+      <c r="B355" s="17"/>
+      <c r="C355" s="6"/>
     </row>
     <row r="356" spans="2:3">
-      <c r="B356" s="18"/>
-      <c r="C356" s="8"/>
+      <c r="B356" s="17"/>
+      <c r="C356" s="6"/>
     </row>
     <row r="357" spans="2:3">
-      <c r="B357" s="18"/>
-      <c r="C357" s="8"/>
+      <c r="B357" s="17"/>
+      <c r="C357" s="6"/>
     </row>
     <row r="358" spans="2:3">
-      <c r="B358" s="18"/>
-      <c r="C358" s="8"/>
+      <c r="B358" s="17"/>
+      <c r="C358" s="6"/>
     </row>
     <row r="359" spans="2:3">
-      <c r="B359" s="18"/>
-      <c r="C359" s="8"/>
+      <c r="B359" s="17"/>
+      <c r="C359" s="6"/>
     </row>
     <row r="360" spans="2:3">
-      <c r="B360" s="18"/>
-      <c r="C360" s="8"/>
+      <c r="B360" s="17"/>
+      <c r="C360" s="6"/>
     </row>
     <row r="361" spans="2:3">
-      <c r="B361" s="18"/>
-      <c r="C361" s="8"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="6"/>
     </row>
     <row r="362" spans="2:3">
-      <c r="B362" s="18"/>
-      <c r="C362" s="8"/>
+      <c r="B362" s="17"/>
+      <c r="C362" s="6"/>
     </row>
     <row r="363" spans="2:3">
-      <c r="B363" s="18"/>
-      <c r="C363" s="8"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="6"/>
     </row>
     <row r="364" spans="2:3">
-      <c r="B364" s="18"/>
-      <c r="C364" s="8"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="6"/>
     </row>
     <row r="365" spans="2:3">
-      <c r="B365" s="18"/>
-      <c r="C365" s="8"/>
+      <c r="B365" s="17"/>
+      <c r="C365" s="6"/>
     </row>
     <row r="366" spans="2:3">
-      <c r="B366" s="18"/>
-      <c r="C366" s="8"/>
+      <c r="B366" s="17"/>
+      <c r="C366" s="6"/>
     </row>
     <row r="367" spans="2:3">
-      <c r="B367" s="18"/>
-      <c r="C367" s="8"/>
+      <c r="B367" s="17"/>
+      <c r="C367" s="6"/>
     </row>
     <row r="368" spans="2:3">
-      <c r="B368" s="18"/>
-      <c r="C368" s="8"/>
+      <c r="B368" s="17"/>
+      <c r="C368" s="6"/>
     </row>
     <row r="369" spans="2:3">
-      <c r="B369" s="18"/>
-      <c r="C369" s="8"/>
+      <c r="B369" s="17"/>
+      <c r="C369" s="6"/>
     </row>
     <row r="370" spans="2:3">
-      <c r="B370" s="18"/>
-      <c r="C370" s="8"/>
+      <c r="B370" s="17"/>
+      <c r="C370" s="6"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="18"/>
-      <c r="C371" s="8"/>
+      <c r="B371" s="17"/>
+      <c r="C371" s="6"/>
     </row>
     <row r="372" spans="2:3">
-      <c r="B372" s="18"/>
-      <c r="C372" s="8"/>
+      <c r="B372" s="17"/>
+      <c r="C372" s="6"/>
     </row>
     <row r="373" spans="2:3">
-      <c r="B373" s="18"/>
-      <c r="C373" s="8"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="6"/>
     </row>
     <row r="374" spans="2:3">
-      <c r="B374" s="18"/>
-      <c r="C374" s="8"/>
+      <c r="B374" s="17"/>
+      <c r="C374" s="6"/>
     </row>
     <row r="375" spans="2:3">
-      <c r="B375" s="18"/>
-      <c r="C375" s="8"/>
+      <c r="B375" s="17"/>
+      <c r="C375" s="6"/>
     </row>
     <row r="376" spans="2:3">
-      <c r="B376" s="18"/>
-      <c r="C376" s="8"/>
+      <c r="B376" s="17"/>
+      <c r="C376" s="6"/>
     </row>
     <row r="377" spans="2:3">
-      <c r="B377" s="18"/>
-      <c r="C377" s="8"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="6"/>
     </row>
     <row r="378" spans="2:3">
-      <c r="B378" s="18"/>
-      <c r="C378" s="8"/>
+      <c r="B378" s="17"/>
+      <c r="C378" s="6"/>
     </row>
     <row r="379" spans="2:3">
-      <c r="B379" s="18"/>
-      <c r="C379" s="8"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="6"/>
     </row>
     <row r="380" spans="2:3">
-      <c r="B380" s="18"/>
-      <c r="C380" s="8"/>
+      <c r="B380" s="17"/>
+      <c r="C380" s="6"/>
     </row>
     <row r="381" spans="2:3">
-      <c r="B381" s="18"/>
-      <c r="C381" s="8"/>
+      <c r="B381" s="17"/>
+      <c r="C381" s="6"/>
     </row>
     <row r="382" spans="2:3">
-      <c r="B382" s="18"/>
-      <c r="C382" s="8"/>
+      <c r="B382" s="17"/>
+      <c r="C382" s="6"/>
     </row>
     <row r="383" spans="2:3">
-      <c r="B383" s="18"/>
-      <c r="C383" s="8"/>
+      <c r="B383" s="17"/>
+      <c r="C383" s="6"/>
     </row>
     <row r="384" spans="2:3">
-      <c r="B384" s="18"/>
-      <c r="C384" s="8"/>
+      <c r="B384" s="17"/>
+      <c r="C384" s="6"/>
     </row>
     <row r="385" spans="2:3">
-      <c r="B385" s="18"/>
-      <c r="C385" s="8"/>
+      <c r="B385" s="17"/>
+      <c r="C385" s="6"/>
     </row>
     <row r="386" spans="2:3">
-      <c r="B386" s="18"/>
-      <c r="C386" s="8"/>
+      <c r="B386" s="17"/>
+      <c r="C386" s="6"/>
     </row>
     <row r="387" spans="2:3">
-      <c r="B387" s="18"/>
-      <c r="C387" s="8"/>
+      <c r="B387" s="17"/>
+      <c r="C387" s="6"/>
     </row>
     <row r="388" spans="2:3">
-      <c r="B388" s="18"/>
+      <c r="B388" s="17"/>
       <c r="C388" s="5"/>
     </row>
     <row r="389" spans="2:3">
-      <c r="B389" s="18"/>
+      <c r="B389" s="17"/>
       <c r="C389" s="5"/>
     </row>
     <row r="390" spans="2:3">
-      <c r="B390" s="18"/>
+      <c r="B390" s="17"/>
       <c r="C390" s="5"/>
     </row>
     <row r="391" spans="2:3">
-      <c r="B391" s="18"/>
+      <c r="B391" s="17"/>
       <c r="C391" s="5"/>
     </row>
     <row r="392" spans="2:3">
-      <c r="B392" s="18"/>
+      <c r="B392" s="17"/>
       <c r="C392" s="5"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="23"/>
+      <c r="B393" s="22"/>
       <c r="C393" s="5"/>
     </row>
     <row r="394" spans="2:3">
-      <c r="B394" s="18"/>
+      <c r="B394" s="17"/>
       <c r="C394" s="5"/>
     </row>
     <row r="395" spans="2:3">
-      <c r="B395" s="18"/>
+      <c r="B395" s="17"/>
       <c r="C395" s="5"/>
     </row>
     <row r="396" spans="2:3">
-      <c r="B396" s="18"/>
+      <c r="B396" s="17"/>
       <c r="C396" s="5"/>
     </row>
     <row r="397" spans="2:3">
-      <c r="B397" s="18"/>
+      <c r="B397" s="17"/>
       <c r="C397" s="5"/>
     </row>
     <row r="398" spans="2:3">
-      <c r="B398" s="18"/>
+      <c r="B398" s="17"/>
       <c r="C398" s="5"/>
     </row>
     <row r="399" spans="2:3">
-      <c r="B399" s="18"/>
+      <c r="B399" s="17"/>
       <c r="C399" s="5"/>
     </row>
     <row r="400" spans="2:3">
-      <c r="B400" s="18"/>
+      <c r="B400" s="17"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" spans="2:3">
-      <c r="B401" s="18"/>
+      <c r="B401" s="17"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" spans="2:3">
-      <c r="B402" s="18"/>
+      <c r="B402" s="17"/>
       <c r="C402" s="5"/>
     </row>
     <row r="403" spans="2:3">
-      <c r="B403" s="18"/>
-      <c r="C403" s="8"/>
+      <c r="B403" s="17"/>
+      <c r="C403" s="6"/>
     </row>
     <row r="404" spans="2:3">
-      <c r="B404" s="18"/>
-      <c r="C404" s="8"/>
+      <c r="B404" s="17"/>
+      <c r="C404" s="6"/>
     </row>
     <row r="405" spans="2:3">
-      <c r="B405" s="18"/>
-      <c r="C405" s="8"/>
+      <c r="B405" s="17"/>
+      <c r="C405" s="6"/>
     </row>
     <row r="406" spans="2:3">
-      <c r="B406" s="18"/>
-      <c r="C406" s="8"/>
+      <c r="B406" s="17"/>
+      <c r="C406" s="6"/>
     </row>
     <row r="407" spans="2:3">
-      <c r="B407" s="18"/>
-      <c r="C407" s="8"/>
+      <c r="B407" s="17"/>
+      <c r="C407" s="6"/>
     </row>
     <row r="408" spans="2:3">
-      <c r="B408" s="18"/>
-      <c r="C408" s="8"/>
+      <c r="B408" s="17"/>
+      <c r="C408" s="6"/>
     </row>
     <row r="409" spans="2:3">
-      <c r="B409" s="18"/>
-      <c r="C409" s="8"/>
+      <c r="B409" s="17"/>
+      <c r="C409" s="6"/>
     </row>
     <row r="410" spans="2:3">
-      <c r="B410" s="18"/>
-      <c r="C410" s="8"/>
+      <c r="B410" s="17"/>
+      <c r="C410" s="6"/>
     </row>
     <row r="411" spans="2:3">
-      <c r="B411" s="18"/>
-      <c r="C411" s="8"/>
+      <c r="B411" s="17"/>
+      <c r="C411" s="6"/>
     </row>
     <row r="412" spans="2:3">
-      <c r="B412" s="18"/>
-      <c r="C412" s="8"/>
+      <c r="B412" s="17"/>
+      <c r="C412" s="6"/>
     </row>
     <row r="413" spans="2:3">
-      <c r="B413" s="18"/>
-      <c r="C413" s="8"/>
+      <c r="B413" s="17"/>
+      <c r="C413" s="6"/>
     </row>
     <row r="414" spans="2:3">
-      <c r="B414" s="18"/>
-      <c r="C414" s="8"/>
+      <c r="B414" s="17"/>
+      <c r="C414" s="6"/>
     </row>
     <row r="415" spans="2:3">
-      <c r="B415" s="18"/>
-      <c r="C415" s="8"/>
+      <c r="B415" s="17"/>
+      <c r="C415" s="6"/>
     </row>
     <row r="416" spans="2:3">
-      <c r="B416" s="18"/>
-      <c r="C416" s="8"/>
+      <c r="B416" s="17"/>
+      <c r="C416" s="6"/>
     </row>
     <row r="417" spans="2:3">
-      <c r="B417" s="18"/>
-      <c r="C417" s="8"/>
+      <c r="B417" s="17"/>
+      <c r="C417" s="6"/>
     </row>
     <row r="418" spans="2:3">
-      <c r="B418" s="18"/>
-      <c r="C418" s="8"/>
+      <c r="B418" s="17"/>
+      <c r="C418" s="6"/>
     </row>
     <row r="419" spans="2:3">
-      <c r="B419" s="18"/>
+      <c r="B419" s="17"/>
       <c r="C419" s="5"/>
     </row>
     <row r="420" spans="2:3">
-      <c r="B420" s="18"/>
+      <c r="B420" s="17"/>
       <c r="C420" s="5"/>
     </row>
     <row r="421" spans="2:3">
-      <c r="B421" s="18"/>
+      <c r="B421" s="17"/>
       <c r="C421" s="5"/>
     </row>
     <row r="422" spans="2:3">
-      <c r="B422" s="18"/>
+      <c r="B422" s="17"/>
       <c r="C422" s="5"/>
     </row>
     <row r="423" spans="2:3">
-      <c r="B423" s="18"/>
+      <c r="B423" s="17"/>
       <c r="C423" s="5"/>
     </row>
     <row r="424" spans="2:3">
-      <c r="B424" s="18"/>
+      <c r="B424" s="17"/>
       <c r="C424" s="5"/>
     </row>
     <row r="425" spans="2:3">
-      <c r="B425" s="18"/>
+      <c r="B425" s="17"/>
       <c r="C425" s="5"/>
     </row>
     <row r="426" spans="2:3">
-      <c r="B426" s="18"/>
+      <c r="B426" s="17"/>
       <c r="C426" s="5"/>
     </row>
     <row r="427" spans="2:3">
-      <c r="B427" s="18"/>
+      <c r="B427" s="17"/>
       <c r="C427" s="5"/>
     </row>
     <row r="428" spans="2:3">
-      <c r="B428" s="18"/>
+      <c r="B428" s="17"/>
       <c r="C428" s="5"/>
     </row>
     <row r="429" spans="2:3">
-      <c r="B429" s="18"/>
+      <c r="B429" s="17"/>
       <c r="C429" s="5"/>
     </row>
     <row r="430" spans="2:3">
-      <c r="B430" s="18"/>
-      <c r="C430" s="24"/>
+      <c r="B430" s="17"/>
+      <c r="C430" s="23"/>
     </row>
     <row r="431" spans="2:3">
-      <c r="B431" s="18"/>
-      <c r="C431" s="20"/>
+      <c r="B431" s="17"/>
+      <c r="C431" s="19"/>
     </row>
     <row r="432" spans="2:3">
-      <c r="B432" s="18"/>
-      <c r="C432" s="20"/>
+      <c r="B432" s="17"/>
+      <c r="C432" s="19"/>
     </row>
     <row r="433" spans="2:3">
-      <c r="B433" s="18"/>
-      <c r="C433" s="20"/>
+      <c r="B433" s="17"/>
+      <c r="C433" s="19"/>
     </row>
     <row r="434" spans="2:3">
-      <c r="B434" s="18"/>
-      <c r="C434" s="20"/>
+      <c r="B434" s="17"/>
+      <c r="C434" s="19"/>
     </row>
     <row r="435" spans="2:3">
-      <c r="B435" s="18"/>
-      <c r="C435" s="24"/>
+      <c r="B435" s="17"/>
+      <c r="C435" s="23"/>
     </row>
     <row r="436" spans="2:3">
-      <c r="B436" s="18"/>
-      <c r="C436" s="10"/>
+      <c r="B436" s="17"/>
+      <c r="C436" s="9"/>
     </row>
     <row r="437" spans="2:3">
-      <c r="B437" s="18"/>
-      <c r="C437" s="10"/>
+      <c r="B437" s="17"/>
+      <c r="C437" s="9"/>
     </row>
     <row r="438" spans="2:3">
-      <c r="B438" s="18"/>
-      <c r="C438" s="10"/>
+      <c r="B438" s="17"/>
+      <c r="C438" s="9"/>
     </row>
     <row r="439" spans="2:3">
-      <c r="B439" s="18"/>
-      <c r="C439" s="10"/>
+      <c r="B439" s="17"/>
+      <c r="C439" s="9"/>
     </row>
     <row r="440" spans="2:3">
-      <c r="B440" s="18"/>
-      <c r="C440" s="10"/>
+      <c r="B440" s="17"/>
+      <c r="C440" s="9"/>
     </row>
     <row r="441" spans="2:3">
-      <c r="B441" s="18"/>
-      <c r="C441" s="10"/>
+      <c r="B441" s="17"/>
+      <c r="C441" s="9"/>
     </row>
     <row r="442" spans="2:3">
-      <c r="B442" s="18"/>
-      <c r="C442" s="10"/>
+      <c r="B442" s="17"/>
+      <c r="C442" s="9"/>
     </row>
     <row r="443" spans="2:3">
-      <c r="B443" s="18"/>
-      <c r="C443" s="10"/>
+      <c r="B443" s="17"/>
+      <c r="C443" s="9"/>
     </row>
     <row r="444" spans="2:3">
-      <c r="B444" s="18"/>
-      <c r="C444" s="10"/>
+      <c r="B444" s="17"/>
+      <c r="C444" s="9"/>
     </row>
     <row r="445" spans="2:3">
-      <c r="B445" s="18"/>
-      <c r="C445" s="10"/>
+      <c r="B445" s="17"/>
+      <c r="C445" s="9"/>
     </row>
     <row r="446" spans="2:3">
-      <c r="B446" s="18"/>
-      <c r="C446" s="10"/>
+      <c r="B446" s="17"/>
+      <c r="C446" s="9"/>
     </row>
     <row r="447" spans="2:3">
-      <c r="B447" s="18"/>
-      <c r="C447" s="10"/>
+      <c r="B447" s="17"/>
+      <c r="C447" s="9"/>
     </row>
     <row r="448" spans="2:3">
-      <c r="B448" s="18"/>
-      <c r="C448" s="10"/>
+      <c r="B448" s="17"/>
+      <c r="C448" s="9"/>
     </row>
     <row r="449" spans="2:3">
-      <c r="B449" s="18"/>
-      <c r="C449" s="10"/>
+      <c r="B449" s="17"/>
+      <c r="C449" s="9"/>
     </row>
     <row r="450" spans="2:3">
-      <c r="B450" s="18"/>
-      <c r="C450" s="10"/>
+      <c r="B450" s="17"/>
+      <c r="C450" s="9"/>
     </row>
     <row r="451" spans="2:3">
-      <c r="B451" s="18"/>
-      <c r="C451" s="10"/>
+      <c r="B451" s="17"/>
+      <c r="C451" s="9"/>
     </row>
     <row r="452" spans="2:3">
-      <c r="B452" s="18"/>
-      <c r="C452" s="10"/>
+      <c r="B452" s="17"/>
+      <c r="C452" s="9"/>
     </row>
     <row r="453" spans="2:3">
-      <c r="B453" s="18"/>
-      <c r="C453" s="10"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="9"/>
     </row>
     <row r="454" spans="2:3">
-      <c r="B454" s="18"/>
-      <c r="C454" s="10"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="9"/>
     </row>
     <row r="455" spans="2:3">
-      <c r="B455" s="18"/>
-      <c r="C455" s="10"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="9"/>
     </row>
     <row r="456" spans="2:3">
-      <c r="B456" s="18"/>
-      <c r="C456" s="10"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="9"/>
     </row>
     <row r="457" spans="2:3">
-      <c r="B457" s="18"/>
-      <c r="C457" s="25"/>
+      <c r="B457" s="17"/>
+      <c r="C457" s="24"/>
     </row>
     <row r="458" spans="2:3">
-      <c r="B458" s="18"/>
-      <c r="C458" s="26"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="25"/>
     </row>
     <row r="459" spans="2:3">
-      <c r="B459" s="18"/>
-      <c r="C459" s="25"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="24"/>
     </row>
     <row r="460" spans="2:3">
-      <c r="B460" s="18"/>
-      <c r="C460" s="25"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="24"/>
     </row>
     <row r="461" spans="2:3">
-      <c r="B461" s="18"/>
-      <c r="C461" s="25"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="24"/>
     </row>
     <row r="462" spans="2:3">
-      <c r="B462" s="18"/>
-      <c r="C462" s="25"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="24"/>
     </row>
     <row r="463" spans="2:3">
-      <c r="B463" s="18"/>
-      <c r="C463" s="25"/>
+      <c r="B463" s="17"/>
+      <c r="C463" s="24"/>
     </row>
     <row r="464" spans="2:3">
-      <c r="B464" s="18"/>
-      <c r="C464" s="25"/>
+      <c r="B464" s="17"/>
+      <c r="C464" s="24"/>
     </row>
     <row r="465" spans="2:3">
-      <c r="B465" s="18"/>
-      <c r="C465" s="25"/>
+      <c r="B465" s="17"/>
+      <c r="C465" s="24"/>
     </row>
     <row r="466" spans="2:3">
-      <c r="B466" s="18"/>
-      <c r="C466" s="25"/>
+      <c r="B466" s="17"/>
+      <c r="C466" s="24"/>
     </row>
     <row r="467" spans="2:3">
-      <c r="B467" s="18"/>
-      <c r="C467" s="26"/>
+      <c r="B467" s="17"/>
+      <c r="C467" s="25"/>
     </row>
     <row r="468" spans="2:3">
-      <c r="B468" s="18"/>
-      <c r="C468" s="25"/>
+      <c r="B468" s="17"/>
+      <c r="C468" s="24"/>
     </row>
     <row r="469" spans="2:3">
-      <c r="B469" s="18"/>
-      <c r="C469" s="25"/>
+      <c r="B469" s="17"/>
+      <c r="C469" s="24"/>
     </row>
     <row r="470" spans="2:3">
-      <c r="B470" s="18"/>
-      <c r="C470" s="25"/>
+      <c r="B470" s="17"/>
+      <c r="C470" s="24"/>
     </row>
     <row r="471" spans="2:3">
-      <c r="B471" s="18"/>
-      <c r="C471" s="25"/>
+      <c r="B471" s="17"/>
+      <c r="C471" s="24"/>
     </row>
     <row r="472" spans="2:3">
-      <c r="B472" s="18"/>
-      <c r="C472" s="25"/>
+      <c r="B472" s="17"/>
+      <c r="C472" s="24"/>
     </row>
     <row r="473" spans="2:3">
-      <c r="B473" s="18"/>
-      <c r="C473" s="25"/>
+      <c r="B473" s="17"/>
+      <c r="C473" s="24"/>
     </row>
     <row r="474" spans="2:3">
-      <c r="B474" s="18"/>
-      <c r="C474" s="25"/>
+      <c r="B474" s="17"/>
+      <c r="C474" s="24"/>
     </row>
     <row r="475" spans="2:3">
-      <c r="B475" s="18"/>
-      <c r="C475" s="25"/>
+      <c r="B475" s="17"/>
+      <c r="C475" s="24"/>
     </row>
     <row r="476" spans="2:3">
-      <c r="B476" s="18"/>
-      <c r="C476" s="25"/>
+      <c r="B476" s="17"/>
+      <c r="C476" s="24"/>
     </row>
     <row r="477" spans="2:3">
-      <c r="B477" s="18"/>
-      <c r="C477" s="25"/>
+      <c r="B477" s="17"/>
+      <c r="C477" s="24"/>
     </row>
     <row r="478" spans="2:3">
-      <c r="B478" s="18"/>
-      <c r="C478" s="25"/>
+      <c r="B478" s="17"/>
+      <c r="C478" s="24"/>
     </row>
     <row r="479" spans="2:3">
-      <c r="B479" s="18"/>
-      <c r="C479" s="25"/>
+      <c r="B479" s="17"/>
+      <c r="C479" s="24"/>
     </row>
     <row r="480" spans="2:3">
-      <c r="B480" s="18"/>
-      <c r="C480" s="25"/>
+      <c r="B480" s="17"/>
+      <c r="C480" s="24"/>
     </row>
     <row r="481" spans="2:3">
-      <c r="B481" s="18"/>
-      <c r="C481" s="25"/>
+      <c r="B481" s="17"/>
+      <c r="C481" s="24"/>
     </row>
     <row r="482" spans="2:3">
-      <c r="B482" s="18"/>
-      <c r="C482" s="25"/>
+      <c r="B482" s="17"/>
+      <c r="C482" s="24"/>
     </row>
     <row r="483" spans="2:3">
-      <c r="B483" s="18"/>
-      <c r="C483" s="25"/>
+      <c r="B483" s="17"/>
+      <c r="C483" s="24"/>
     </row>
     <row r="484" spans="2:3">
-      <c r="B484" s="18"/>
-      <c r="C484" s="25"/>
+      <c r="B484" s="17"/>
+      <c r="C484" s="24"/>
     </row>
     <row r="485" spans="2:3">
-      <c r="B485" s="18"/>
-      <c r="C485" s="25"/>
+      <c r="B485" s="17"/>
+      <c r="C485" s="24"/>
     </row>
     <row r="486" spans="2:3">
-      <c r="B486" s="18"/>
+      <c r="B486" s="17"/>
       <c r="C486" s="5"/>
     </row>
     <row r="487" spans="2:3">
-      <c r="B487" s="18"/>
+      <c r="B487" s="17"/>
       <c r="C487" s="5"/>
     </row>
     <row r="488" spans="2:3">
-      <c r="B488" s="18"/>
+      <c r="B488" s="17"/>
       <c r="C488" s="5"/>
     </row>
     <row r="489" spans="2:3">
-      <c r="B489" s="18"/>
+      <c r="B489" s="17"/>
       <c r="C489" s="5"/>
     </row>
     <row r="490" spans="2:3">
-      <c r="B490" s="18"/>
+      <c r="B490" s="17"/>
       <c r="C490" s="5"/>
     </row>
     <row r="491" spans="2:3">
-      <c r="B491" s="18"/>
+      <c r="B491" s="17"/>
       <c r="C491" s="5"/>
     </row>
     <row r="492" spans="2:3">
-      <c r="B492" s="18"/>
+      <c r="B492" s="17"/>
       <c r="C492" s="5"/>
     </row>
     <row r="493" spans="2:3">
-      <c r="B493" s="18"/>
+      <c r="B493" s="17"/>
       <c r="C493" s="5"/>
     </row>
     <row r="494" spans="2:3">
-      <c r="B494" s="18"/>
+      <c r="B494" s="17"/>
       <c r="C494" s="5"/>
     </row>
     <row r="495" spans="2:3">
-      <c r="B495" s="18"/>
+      <c r="B495" s="17"/>
       <c r="C495" s="5"/>
     </row>
     <row r="496" spans="2:3">
-      <c r="B496" s="18"/>
+      <c r="B496" s="17"/>
       <c r="C496" s="5"/>
     </row>
     <row r="497" spans="2:3">
-      <c r="B497" s="18"/>
+      <c r="B497" s="17"/>
       <c r="C497" s="5"/>
     </row>
     <row r="498" spans="2:3">
-      <c r="B498" s="18"/>
+      <c r="B498" s="17"/>
       <c r="C498" s="5"/>
     </row>
     <row r="499" spans="2:3">
-      <c r="B499" s="18"/>
+      <c r="B499" s="17"/>
       <c r="C499" s="5"/>
     </row>
     <row r="500" spans="2:3">
-      <c r="B500" s="18"/>
+      <c r="B500" s="17"/>
       <c r="C500" s="5"/>
     </row>
     <row r="501" spans="2:3">
-      <c r="B501" s="18"/>
-      <c r="C501" s="27"/>
+      <c r="B501" s="17"/>
+      <c r="C501" s="26"/>
     </row>
     <row r="502" spans="2:3">
-      <c r="B502" s="18"/>
+      <c r="B502" s="17"/>
       <c r="C502" s="5"/>
     </row>
     <row r="503" spans="2:3">
-      <c r="B503" s="18"/>
+      <c r="B503" s="17"/>
       <c r="C503" s="5"/>
     </row>
     <row r="504" spans="2:3">
-      <c r="B504" s="18"/>
+      <c r="B504" s="17"/>
       <c r="C504" s="5"/>
     </row>
     <row r="505" spans="2:3">
-      <c r="B505" s="18"/>
+      <c r="B505" s="17"/>
       <c r="C505" s="5"/>
     </row>
     <row r="506" spans="2:3">
-      <c r="B506" s="18"/>
+      <c r="B506" s="17"/>
       <c r="C506" s="5"/>
     </row>
     <row r="507" spans="2:3">
-      <c r="B507" s="18"/>
+      <c r="B507" s="17"/>
       <c r="C507" s="5"/>
     </row>
     <row r="508" spans="2:3">
-      <c r="B508" s="18"/>
+      <c r="B508" s="17"/>
       <c r="C508" s="5"/>
     </row>
     <row r="509" spans="2:3">
-      <c r="B509" s="18"/>
+      <c r="B509" s="17"/>
       <c r="C509" s="5"/>
     </row>
     <row r="510" spans="2:3">
-      <c r="B510" s="18"/>
+      <c r="B510" s="17"/>
       <c r="C510" s="5"/>
     </row>
     <row r="511" spans="2:3">
-      <c r="B511" s="18"/>
+      <c r="B511" s="17"/>
       <c r="C511" s="5"/>
     </row>
     <row r="512" spans="2:3">
-      <c r="B512" s="18"/>
+      <c r="B512" s="17"/>
       <c r="C512" s="5"/>
     </row>
     <row r="513" spans="2:3">
-      <c r="B513" s="18"/>
+      <c r="B513" s="17"/>
       <c r="C513" s="5"/>
     </row>
     <row r="514" spans="2:3">
-      <c r="B514" s="18"/>
+      <c r="B514" s="17"/>
       <c r="C514" s="5"/>
     </row>
     <row r="515" spans="2:3">
-      <c r="B515" s="18"/>
+      <c r="B515" s="17"/>
       <c r="C515" s="5"/>
     </row>
     <row r="516" spans="2:3">
-      <c r="B516" s="18"/>
+      <c r="B516" s="17"/>
       <c r="C516" s="5"/>
     </row>
     <row r="517" spans="2:3">
-      <c r="B517" s="18"/>
+      <c r="B517" s="17"/>
       <c r="C517" s="5"/>
     </row>
     <row r="518" spans="2:3">
-      <c r="B518" s="18"/>
+      <c r="B518" s="17"/>
       <c r="C518" s="5"/>
     </row>
     <row r="519" spans="2:3">
-      <c r="B519" s="18"/>
+      <c r="B519" s="17"/>
       <c r="C519" s="5"/>
     </row>
     <row r="520" spans="2:3">
-      <c r="B520" s="18"/>
+      <c r="B520" s="17"/>
       <c r="C520" s="5"/>
     </row>
     <row r="521" spans="2:3">
-      <c r="B521" s="18"/>
+      <c r="B521" s="17"/>
       <c r="C521" s="5"/>
     </row>
     <row r="522" spans="2:3">
-      <c r="B522" s="18"/>
+      <c r="B522" s="17"/>
       <c r="C522" s="5"/>
     </row>
     <row r="523" spans="2:3">
-      <c r="B523" s="18"/>
+      <c r="B523" s="17"/>
       <c r="C523" s="5"/>
     </row>
     <row r="524" spans="2:3">
-      <c r="B524" s="18"/>
+      <c r="B524" s="17"/>
       <c r="C524" s="5"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="19"/>
+      <c r="B525" s="18"/>
       <c r="C525" s="5"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="19"/>
+      <c r="B526" s="18"/>
       <c r="C526" s="5"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="19"/>
+      <c r="B527" s="18"/>
       <c r="C527" s="5"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="19"/>
+      <c r="B528" s="18"/>
       <c r="C528" s="5"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="19"/>
+      <c r="B529" s="18"/>
       <c r="C529" s="5"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="19"/>
+      <c r="B530" s="18"/>
       <c r="C530" s="5"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="19"/>
+      <c r="B531" s="18"/>
       <c r="C531" s="5"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="19"/>
+      <c r="B532" s="18"/>
       <c r="C532" s="5"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="19"/>
+      <c r="B533" s="18"/>
       <c r="C533" s="5"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="19"/>
+      <c r="B534" s="18"/>
       <c r="C534" s="5"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="19"/>
+      <c r="B535" s="18"/>
       <c r="C535" s="5"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="19"/>
+      <c r="B536" s="18"/>
       <c r="C536" s="5"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="19"/>
+      <c r="B537" s="18"/>
       <c r="C537" s="5"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="19"/>
+      <c r="B538" s="18"/>
       <c r="C538" s="5"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="19"/>
+      <c r="B539" s="18"/>
       <c r="C539" s="5"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="19"/>
+      <c r="B540" s="18"/>
       <c r="C540" s="5"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="19"/>
+      <c r="B541" s="18"/>
       <c r="C541" s="5"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="19"/>
+      <c r="B542" s="18"/>
       <c r="C542" s="5"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="19"/>
+      <c r="B543" s="18"/>
       <c r="C543" s="5"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="19"/>
+      <c r="B544" s="18"/>
       <c r="C544" s="5"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="19"/>
+      <c r="B545" s="18"/>
       <c r="C545" s="5"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="19"/>
+      <c r="B546" s="18"/>
       <c r="C546" s="5"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="19"/>
+      <c r="B547" s="18"/>
       <c r="C547" s="5"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="19"/>
+      <c r="B548" s="18"/>
       <c r="C548" s="5"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="19"/>
+      <c r="B549" s="18"/>
       <c r="C549" s="5"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="19"/>
+      <c r="B550" s="18"/>
       <c r="C550" s="5"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="19"/>
+      <c r="B551" s="18"/>
       <c r="C551" s="5"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="19"/>
+      <c r="B552" s="18"/>
       <c r="C552" s="5"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="19"/>
+      <c r="B553" s="18"/>
       <c r="C553" s="5"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="19"/>
+      <c r="B554" s="18"/>
       <c r="C554" s="5"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="19"/>
+      <c r="B555" s="18"/>
       <c r="C555" s="5"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="19"/>
+      <c r="B556" s="18"/>
       <c r="C556" s="5"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="19"/>
+      <c r="B557" s="18"/>
       <c r="C557" s="5"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="19"/>
+      <c r="B558" s="18"/>
       <c r="C558" s="5"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="19"/>
+      <c r="B559" s="18"/>
       <c r="C559" s="5"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="19"/>
+      <c r="B560" s="18"/>
       <c r="C560" s="5"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="19"/>
+      <c r="B561" s="18"/>
       <c r="C561" s="5"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="19"/>
+      <c r="B562" s="18"/>
       <c r="C562" s="5"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="19"/>
-      <c r="C563" s="25"/>
+      <c r="B563" s="18"/>
+      <c r="C563" s="24"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="19"/>
-      <c r="C564" s="25"/>
+      <c r="B564" s="18"/>
+      <c r="C564" s="24"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="19"/>
-      <c r="C565" s="25"/>
+      <c r="B565" s="18"/>
+      <c r="C565" s="24"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="19"/>
-      <c r="C566" s="25"/>
+      <c r="B566" s="18"/>
+      <c r="C566" s="24"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="19"/>
-      <c r="C567" s="25"/>
+      <c r="B567" s="18"/>
+      <c r="C567" s="24"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="19"/>
-      <c r="C568" s="25"/>
+      <c r="B568" s="18"/>
+      <c r="C568" s="24"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="19"/>
-      <c r="C569" s="25"/>
+      <c r="B569" s="18"/>
+      <c r="C569" s="24"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="19"/>
-      <c r="C570" s="25"/>
+      <c r="B570" s="18"/>
+      <c r="C570" s="24"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="19"/>
-      <c r="C571" s="25"/>
+      <c r="B571" s="18"/>
+      <c r="C571" s="24"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="19"/>
-      <c r="C572" s="25"/>
+      <c r="B572" s="18"/>
+      <c r="C572" s="24"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="19"/>
-      <c r="C573" s="25"/>
+      <c r="B573" s="18"/>
+      <c r="C573" s="24"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="19"/>
-      <c r="C574" s="25"/>
+      <c r="B574" s="18"/>
+      <c r="C574" s="24"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="19"/>
-      <c r="C575" s="25"/>
+      <c r="B575" s="18"/>
+      <c r="C575" s="24"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="19"/>
-      <c r="C576" s="25"/>
+      <c r="B576" s="18"/>
+      <c r="C576" s="24"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="19"/>
+      <c r="B577" s="18"/>
       <c r="C577" s="5"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="19"/>
+      <c r="B578" s="18"/>
       <c r="C578" s="5"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="19"/>
+      <c r="B579" s="18"/>
       <c r="C579" s="5"/>
     </row>
     <row r="580" spans="2:3">
-      <c r="B580" s="18"/>
+      <c r="B580" s="17"/>
       <c r="C580" s="5"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="19"/>
+      <c r="B581" s="18"/>
       <c r="C581" s="5"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="19"/>
+      <c r="B582" s="18"/>
       <c r="C582" s="5"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="19"/>
+      <c r="B583" s="18"/>
       <c r="C583" s="5"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="19"/>
+      <c r="B584" s="18"/>
       <c r="C584" s="5"/>
     </row>
     <row r="585" spans="2:3">
-      <c r="B585" s="18"/>
+      <c r="B585" s="17"/>
       <c r="C585" s="5"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="19"/>
+      <c r="B586" s="18"/>
       <c r="C586" s="5"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="19"/>
+      <c r="B587" s="18"/>
       <c r="C587" s="5"/>
     </row>
     <row r="588" spans="2:3">
-      <c r="B588" s="18"/>
+      <c r="B588" s="17"/>
       <c r="C588" s="5"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="19"/>
+      <c r="B589" s="18"/>
       <c r="C589" s="5"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="19"/>
+      <c r="B590" s="18"/>
       <c r="C590" s="5"/>
     </row>
     <row r="591" spans="2:3">
-      <c r="B591" s="18"/>
+      <c r="B591" s="17"/>
       <c r="C591" s="5"/>
     </row>
     <row r="592" spans="2:3">
-      <c r="B592" s="18"/>
+      <c r="B592" s="17"/>
       <c r="C592" s="5"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="19"/>
+      <c r="B593" s="18"/>
       <c r="C593" s="5"/>
     </row>
     <row r="594" spans="2:3">
-      <c r="B594" s="18"/>
+      <c r="B594" s="17"/>
       <c r="C594" s="5"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="19"/>
+      <c r="B595" s="18"/>
       <c r="C595" s="5"/>
     </row>
     <row r="596" spans="2:3">
-      <c r="B596" s="18"/>
+      <c r="B596" s="17"/>
       <c r="C596" s="5"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="19"/>
+      <c r="B597" s="18"/>
       <c r="C597" s="5"/>
     </row>
     <row r="598" spans="2:3">
-      <c r="B598" s="18"/>
+      <c r="B598" s="17"/>
       <c r="C598" s="5"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="19"/>
+      <c r="B599" s="18"/>
       <c r="C599" s="5"/>
     </row>
     <row r="600" spans="2:3">
-      <c r="B600" s="18"/>
+      <c r="B600" s="17"/>
       <c r="C600" s="5"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="19"/>
+      <c r="B601" s="18"/>
       <c r="C601" s="5"/>
     </row>
     <row r="602" spans="2:3">
-      <c r="B602" s="18"/>
+      <c r="B602" s="17"/>
       <c r="C602" s="5"/>
     </row>
     <row r="603" spans="2:3">
-      <c r="B603" s="18"/>
+      <c r="B603" s="17"/>
       <c r="C603" s="5"/>
     </row>
     <row r="604" spans="2:3">
-      <c r="B604" s="18"/>
+      <c r="B604" s="17"/>
       <c r="C604" s="5"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="19"/>
+      <c r="B605" s="18"/>
       <c r="C605" s="5"/>
     </row>
     <row r="606" spans="2:3">
-      <c r="B606" s="18"/>
+      <c r="B606" s="17"/>
       <c r="C606" s="5"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="19"/>
+      <c r="B607" s="18"/>
       <c r="C607" s="5"/>
     </row>
     <row r="608" spans="2:3">
-      <c r="B608" s="18"/>
+      <c r="B608" s="17"/>
       <c r="C608" s="5"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="19"/>
+      <c r="B609" s="18"/>
       <c r="C609" s="5"/>
     </row>
     <row r="610" spans="2:3">
-      <c r="B610" s="18"/>
+      <c r="B610" s="17"/>
       <c r="C610" s="5"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="19"/>
+      <c r="B611" s="18"/>
       <c r="C611" s="5"/>
     </row>
     <row r="612" spans="2:3">
-      <c r="B612" s="18"/>
+      <c r="B612" s="17"/>
       <c r="C612" s="5"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="19"/>
+      <c r="B613" s="18"/>
       <c r="C613" s="5"/>
     </row>
     <row r="614" spans="2:3">
-      <c r="B614" s="18"/>
+      <c r="B614" s="17"/>
       <c r="C614" s="5"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="19"/>
+      <c r="B615" s="18"/>
       <c r="C615" s="5"/>
     </row>
     <row r="616" spans="2:3">
-      <c r="B616" s="18"/>
+      <c r="B616" s="17"/>
       <c r="C616" s="5"/>
     </row>
     <row r="617" spans="2:3">
-      <c r="B617" s="18"/>
+      <c r="B617" s="17"/>
       <c r="C617" s="5"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="19"/>
+      <c r="B618" s="18"/>
       <c r="C618" s="5"/>
     </row>
     <row r="619" spans="2:3">
-      <c r="B619" s="18"/>
+      <c r="B619" s="17"/>
       <c r="C619" s="5"/>
     </row>
     <row r="620" spans="2:3">
-      <c r="B620" s="18"/>
+      <c r="B620" s="17"/>
       <c r="C620" s="5"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="19"/>
+      <c r="B621" s="18"/>
       <c r="C621" s="5"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="19"/>
+      <c r="B622" s="18"/>
       <c r="C622" s="5"/>
     </row>
     <row r="623" spans="2:3">
-      <c r="B623" s="18"/>
+      <c r="B623" s="17"/>
       <c r="C623" s="5"/>
     </row>
     <row r="624" spans="2:3">
-      <c r="B624" s="18"/>
+      <c r="B624" s="17"/>
       <c r="C624" s="5"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="19"/>
+      <c r="B625" s="18"/>
       <c r="C625" s="5"/>
     </row>
     <row r="626" spans="2:3">
-      <c r="B626" s="18"/>
+      <c r="B626" s="17"/>
       <c r="C626" s="5"/>
     </row>
     <row r="627" spans="2:3">
-      <c r="B627" s="18"/>
+      <c r="B627" s="17"/>
       <c r="C627" s="5"/>
     </row>
     <row r="628" spans="2:3">
-      <c r="B628" s="18"/>
+      <c r="B628" s="17"/>
       <c r="C628" s="5"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="19"/>
+      <c r="B629" s="18"/>
       <c r="C629" s="5"/>
     </row>
     <row r="630" spans="2:3">
-      <c r="B630" s="18"/>
+      <c r="B630" s="17"/>
       <c r="C630" s="5"/>
     </row>
     <row r="631" spans="2:3">
-      <c r="B631" s="18"/>
+      <c r="B631" s="17"/>
       <c r="C631" s="5"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="19"/>
+      <c r="B632" s="18"/>
       <c r="C632" s="5"/>
     </row>
     <row r="633" spans="2:3">
-      <c r="B633" s="18"/>
+      <c r="B633" s="17"/>
       <c r="C633" s="5"/>
     </row>
     <row r="634" spans="2:3">
-      <c r="B634" s="18"/>
+      <c r="B634" s="17"/>
       <c r="C634" s="5"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="19"/>
+      <c r="B635" s="18"/>
       <c r="C635" s="5"/>
     </row>
     <row r="636" spans="2:3">
-      <c r="B636" s="18"/>
+      <c r="B636" s="17"/>
       <c r="C636" s="5"/>
     </row>
     <row r="637" spans="2:3">
-      <c r="B637" s="18"/>
+      <c r="B637" s="17"/>
       <c r="C637" s="5"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="19"/>
+      <c r="B638" s="18"/>
       <c r="C638" s="5"/>
     </row>
     <row r="639" spans="2:3">
-      <c r="B639" s="18"/>
+      <c r="B639" s="17"/>
       <c r="C639" s="5"/>
     </row>
     <row r="640" spans="2:3">
-      <c r="B640" s="18"/>
+      <c r="B640" s="17"/>
       <c r="C640" s="5"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="19"/>
+      <c r="B641" s="18"/>
       <c r="C641" s="5"/>
     </row>
     <row r="642" spans="2:3">
-      <c r="B642" s="18"/>
+      <c r="B642" s="17"/>
       <c r="C642" s="5"/>
     </row>
     <row r="643" spans="2:3">
-      <c r="B643" s="18"/>
+      <c r="B643" s="17"/>
       <c r="C643" s="5"/>
     </row>
     <row r="644" spans="2:3">
-      <c r="B644" s="18"/>
+      <c r="B644" s="17"/>
       <c r="C644" s="5"/>
     </row>
     <row r="645" spans="2:3">
-      <c r="B645" s="18"/>
+      <c r="B645" s="17"/>
       <c r="C645" s="5"/>
     </row>
     <row r="646" spans="2:3">
-      <c r="B646" s="18"/>
+      <c r="B646" s="17"/>
       <c r="C646" s="5"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="19"/>
+      <c r="B647" s="18"/>
       <c r="C647" s="5"/>
     </row>
     <row r="648" spans="2:3">
-      <c r="B648" s="18"/>
+      <c r="B648" s="17"/>
       <c r="C648" s="5"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="19"/>
+      <c r="B649" s="18"/>
       <c r="C649" s="5"/>
     </row>
     <row r="650" spans="2:3">
-      <c r="B650" s="18"/>
+      <c r="B650" s="17"/>
       <c r="C650" s="5"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="19"/>
+      <c r="B651" s="18"/>
       <c r="C651" s="5"/>
     </row>
     <row r="652" spans="2:3">
-      <c r="B652" s="18"/>
+      <c r="B652" s="17"/>
       <c r="C652" s="5"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="19"/>
+      <c r="B653" s="18"/>
       <c r="C653" s="5"/>
     </row>
     <row r="654" spans="2:3">
-      <c r="B654" s="18"/>
+      <c r="B654" s="17"/>
       <c r="C654" s="5"/>
     </row>
     <row r="655" spans="2:3">
-      <c r="B655" s="18"/>
+      <c r="B655" s="17"/>
       <c r="C655" s="5"/>
     </row>
     <row r="656" spans="2:3">
-      <c r="B656" s="18"/>
+      <c r="B656" s="17"/>
       <c r="C656" s="5"/>
     </row>
     <row r="657" spans="2:3">
-      <c r="B657" s="18"/>
-      <c r="C657" s="25"/>
+      <c r="B657" s="17"/>
+      <c r="C657" s="24"/>
     </row>
     <row r="658" spans="2:3">
-      <c r="B658" s="18"/>
-      <c r="C658" s="25"/>
+      <c r="B658" s="17"/>
+      <c r="C658" s="24"/>
     </row>
     <row r="659" spans="2:3">
-      <c r="B659" s="18"/>
-      <c r="C659" s="25"/>
+      <c r="B659" s="17"/>
+      <c r="C659" s="24"/>
     </row>
     <row r="660" spans="2:3">
-      <c r="B660" s="18"/>
-      <c r="C660" s="25"/>
+      <c r="B660" s="17"/>
+      <c r="C660" s="24"/>
     </row>
     <row r="661" spans="2:3">
-      <c r="B661" s="18"/>
-      <c r="C661" s="25"/>
+      <c r="B661" s="17"/>
+      <c r="C661" s="24"/>
     </row>
     <row r="662" spans="2:3">
-      <c r="B662" s="18"/>
-      <c r="C662" s="25"/>
+      <c r="B662" s="17"/>
+      <c r="C662" s="24"/>
     </row>
     <row r="663" spans="2:3">
-      <c r="B663" s="18"/>
-      <c r="C663" s="25"/>
+      <c r="B663" s="17"/>
+      <c r="C663" s="24"/>
     </row>
     <row r="664" spans="2:3">
-      <c r="B664" s="18"/>
-      <c r="C664" s="25"/>
+      <c r="B664" s="17"/>
+      <c r="C664" s="24"/>
     </row>
     <row r="665" spans="2:3">
-      <c r="B665" s="18"/>
-      <c r="C665" s="25"/>
+      <c r="B665" s="17"/>
+      <c r="C665" s="24"/>
     </row>
     <row r="666" spans="2:3">
-      <c r="B666" s="18"/>
-      <c r="C666" s="25"/>
+      <c r="B666" s="17"/>
+      <c r="C666" s="24"/>
     </row>
     <row r="667" spans="2:3">
-      <c r="B667" s="18"/>
-      <c r="C667" s="25"/>
+      <c r="B667" s="17"/>
+      <c r="C667" s="24"/>
     </row>
     <row r="668" spans="2:3">
-      <c r="B668" s="18"/>
-      <c r="C668" s="25"/>
+      <c r="B668" s="17"/>
+      <c r="C668" s="24"/>
     </row>
     <row r="669" spans="2:3">
-      <c r="B669" s="18"/>
-      <c r="C669" s="25"/>
+      <c r="B669" s="17"/>
+      <c r="C669" s="24"/>
     </row>
     <row r="670" spans="2:3">
-      <c r="B670" s="18"/>
-      <c r="C670" s="25"/>
+      <c r="B670" s="17"/>
+      <c r="C670" s="24"/>
     </row>
     <row r="671" spans="2:3">
-      <c r="B671" s="18"/>
-      <c r="C671" s="25"/>
+      <c r="B671" s="17"/>
+      <c r="C671" s="24"/>
     </row>
     <row r="672" spans="2:3">
-      <c r="B672" s="18"/>
-      <c r="C672" s="25"/>
+      <c r="B672" s="17"/>
+      <c r="C672" s="24"/>
     </row>
     <row r="673" spans="2:3">
-      <c r="B673" s="18"/>
-      <c r="C673" s="25"/>
+      <c r="B673" s="17"/>
+      <c r="C673" s="24"/>
     </row>
     <row r="674" spans="2:3">
-      <c r="B674" s="18"/>
-      <c r="C674" s="25"/>
+      <c r="B674" s="17"/>
+      <c r="C674" s="24"/>
     </row>
     <row r="675" spans="2:3">
-      <c r="B675" s="18"/>
-      <c r="C675" s="25"/>
+      <c r="B675" s="17"/>
+      <c r="C675" s="24"/>
     </row>
     <row r="676" spans="2:3">
-      <c r="B676" s="18"/>
-      <c r="C676" s="25"/>
+      <c r="B676" s="17"/>
+      <c r="C676" s="24"/>
     </row>
     <row r="677" spans="2:3">
-      <c r="B677" s="18"/>
-      <c r="C677" s="25"/>
+      <c r="B677" s="17"/>
+      <c r="C677" s="24"/>
     </row>
     <row r="678" spans="2:3">
-      <c r="B678" s="18"/>
+      <c r="B678" s="17"/>
       <c r="C678" s="5"/>
     </row>
     <row r="679" spans="2:3">
-      <c r="B679" s="18"/>
+      <c r="B679" s="17"/>
       <c r="C679" s="5"/>
     </row>
     <row r="680" spans="2:3">
-      <c r="B680" s="18"/>
+      <c r="B680" s="17"/>
       <c r="C680" s="5"/>
     </row>
     <row r="681" spans="2:3">
-      <c r="B681" s="18"/>
-      <c r="C681" s="18"/>
+      <c r="B681" s="17"/>
+      <c r="C681" s="17"/>
     </row>
     <row r="682" spans="2:3">
-      <c r="B682" s="18"/>
-      <c r="C682" s="18"/>
+      <c r="B682" s="17"/>
+      <c r="C682" s="17"/>
     </row>
     <row r="683" spans="2:3">
-      <c r="B683" s="18"/>
-      <c r="C683" s="18"/>
+      <c r="B683" s="17"/>
+      <c r="C683" s="17"/>
     </row>
     <row r="684" spans="2:3">
-      <c r="B684" s="18"/>
-      <c r="C684" s="18"/>
+      <c r="B684" s="17"/>
+      <c r="C684" s="17"/>
     </row>
     <row r="685" spans="2:3">
-      <c r="B685" s="18"/>
-      <c r="C685" s="18"/>
+      <c r="B685" s="17"/>
+      <c r="C685" s="17"/>
     </row>
     <row r="686" spans="2:3">
-      <c r="B686" s="18"/>
-      <c r="C686" s="18"/>
+      <c r="B686" s="17"/>
+      <c r="C686" s="17"/>
     </row>
     <row r="687" spans="2:3">
-      <c r="B687" s="18"/>
-      <c r="C687" s="18"/>
+      <c r="B687" s="17"/>
+      <c r="C687" s="17"/>
     </row>
     <row r="688" spans="2:3">
-      <c r="B688" s="18"/>
-      <c r="C688" s="18"/>
+      <c r="B688" s="17"/>
+      <c r="C688" s="17"/>
     </row>
     <row r="689" spans="2:3">
-      <c r="B689" s="18"/>
-      <c r="C689" s="18"/>
+      <c r="B689" s="17"/>
+      <c r="C689" s="17"/>
     </row>
     <row r="690" spans="2:3">
-      <c r="B690" s="18"/>
-      <c r="C690" s="18"/>
+      <c r="B690" s="17"/>
+      <c r="C690" s="17"/>
     </row>
     <row r="691" spans="2:3">
-      <c r="B691" s="18"/>
-      <c r="C691" s="18"/>
+      <c r="B691" s="17"/>
+      <c r="C691" s="17"/>
     </row>
     <row r="692" spans="2:3">
-      <c r="B692" s="18"/>
-      <c r="C692" s="18"/>
+      <c r="B692" s="17"/>
+      <c r="C692" s="17"/>
     </row>
     <row r="693" spans="2:3">
-      <c r="B693" s="18"/>
-      <c r="C693" s="18"/>
+      <c r="B693" s="17"/>
+      <c r="C693" s="17"/>
     </row>
     <row r="694" spans="2:3">
-      <c r="B694" s="18"/>
-      <c r="C694" s="18"/>
+      <c r="B694" s="17"/>
+      <c r="C694" s="17"/>
     </row>
     <row r="695" spans="2:3">
-      <c r="B695" s="18"/>
-      <c r="C695" s="18"/>
+      <c r="B695" s="17"/>
+      <c r="C695" s="17"/>
     </row>
     <row r="696" spans="2:3">
-      <c r="B696" s="18"/>
-      <c r="C696" s="18"/>
+      <c r="B696" s="17"/>
+      <c r="C696" s="17"/>
     </row>
     <row r="697" spans="2:3">
-      <c r="B697" s="18"/>
+      <c r="B697" s="17"/>
       <c r="C697" s="5"/>
     </row>
     <row r="698" spans="2:3">
-      <c r="B698" s="18"/>
+      <c r="B698" s="17"/>
       <c r="C698" s="5"/>
     </row>
     <row r="699" spans="2:3">
-      <c r="B699" s="18"/>
+      <c r="B699" s="17"/>
       <c r="C699" s="5"/>
     </row>
     <row r="700" spans="2:3">
-      <c r="B700" s="18"/>
+      <c r="B700" s="17"/>
       <c r="C700" s="5"/>
     </row>
     <row r="701" spans="2:3">
-      <c r="B701" s="18"/>
+      <c r="B701" s="17"/>
       <c r="C701" s="5"/>
     </row>
     <row r="702" spans="2:3">
-      <c r="B702" s="18"/>
+      <c r="B702" s="17"/>
       <c r="C702" s="5"/>
     </row>
     <row r="703" spans="2:3">
-      <c r="B703" s="18"/>
-      <c r="C703" s="25"/>
+      <c r="B703" s="17"/>
+      <c r="C703" s="24"/>
     </row>
     <row r="704" spans="2:3">
-      <c r="B704" s="18"/>
-      <c r="C704" s="25"/>
+      <c r="B704" s="17"/>
+      <c r="C704" s="24"/>
     </row>
     <row r="705" spans="2:3">
-      <c r="B705" s="18"/>
-      <c r="C705" s="25"/>
+      <c r="B705" s="17"/>
+      <c r="C705" s="24"/>
     </row>
     <row r="706" spans="2:3">
-      <c r="B706" s="18"/>
-      <c r="C706" s="25"/>
+      <c r="B706" s="17"/>
+      <c r="C706" s="24"/>
     </row>
     <row r="707" spans="2:3">
-      <c r="B707" s="18"/>
-      <c r="C707" s="25"/>
+      <c r="B707" s="17"/>
+      <c r="C707" s="24"/>
     </row>
     <row r="708" spans="2:3">
-      <c r="B708" s="18"/>
-      <c r="C708" s="25"/>
+      <c r="B708" s="17"/>
+      <c r="C708" s="24"/>
     </row>
     <row r="709" spans="2:3">
-      <c r="B709" s="18"/>
-      <c r="C709" s="25"/>
+      <c r="B709" s="17"/>
+      <c r="C709" s="24"/>
     </row>
     <row r="710" spans="2:3">
-      <c r="B710" s="18"/>
-      <c r="C710" s="25"/>
+      <c r="B710" s="17"/>
+      <c r="C710" s="24"/>
     </row>
     <row r="711" spans="2:3">
-      <c r="B711" s="18"/>
-      <c r="C711" s="25"/>
+      <c r="B711" s="17"/>
+      <c r="C711" s="24"/>
     </row>
     <row r="712" spans="2:3">
-      <c r="B712" s="18"/>
-      <c r="C712" s="25"/>
+      <c r="B712" s="17"/>
+      <c r="C712" s="24"/>
     </row>
     <row r="713" spans="2:3">
-      <c r="B713" s="18"/>
-      <c r="C713" s="25"/>
+      <c r="B713" s="17"/>
+      <c r="C713" s="24"/>
     </row>
     <row r="714" spans="2:3">
-      <c r="B714" s="18"/>
-      <c r="C714" s="25"/>
+      <c r="B714" s="17"/>
+      <c r="C714" s="24"/>
     </row>
     <row r="715" spans="2:3">
-      <c r="B715" s="18"/>
-      <c r="C715" s="25"/>
+      <c r="B715" s="17"/>
+      <c r="C715" s="24"/>
     </row>
     <row r="716" spans="2:3">
-      <c r="B716" s="18"/>
-      <c r="C716" s="25"/>
+      <c r="B716" s="17"/>
+      <c r="C716" s="24"/>
     </row>
     <row r="717" spans="2:3">
-      <c r="B717" s="18"/>
+      <c r="B717" s="17"/>
       <c r="C717" s="5"/>
     </row>
     <row r="718" spans="2:3">
-      <c r="B718" s="18"/>
-      <c r="C718" s="25"/>
+      <c r="B718" s="17"/>
+      <c r="C718" s="24"/>
     </row>
     <row r="719" spans="2:3">
-      <c r="B719" s="18"/>
-      <c r="C719" s="25"/>
+      <c r="B719" s="17"/>
+      <c r="C719" s="24"/>
     </row>
     <row r="720" spans="2:3">
-      <c r="B720" s="18"/>
-      <c r="C720" s="25"/>
+      <c r="B720" s="17"/>
+      <c r="C720" s="24"/>
     </row>
     <row r="721" spans="2:3">
-      <c r="B721" s="18"/>
-      <c r="C721" s="25"/>
+      <c r="B721" s="17"/>
+      <c r="C721" s="24"/>
     </row>
     <row r="722" spans="2:3">
-      <c r="B722" s="18"/>
-      <c r="C722" s="25"/>
+      <c r="B722" s="17"/>
+      <c r="C722" s="24"/>
     </row>
     <row r="723" spans="2:3">
-      <c r="B723" s="18"/>
-      <c r="C723" s="25"/>
+      <c r="B723" s="17"/>
+      <c r="C723" s="24"/>
     </row>
     <row r="724" spans="2:3">
-      <c r="B724" s="18"/>
-      <c r="C724" s="25"/>
+      <c r="B724" s="17"/>
+      <c r="C724" s="24"/>
     </row>
     <row r="725" spans="2:3">
-      <c r="B725" s="18"/>
+      <c r="B725" s="17"/>
       <c r="C725" s="5"/>
     </row>
     <row r="726" spans="2:3">
-      <c r="B726" s="18"/>
+      <c r="B726" s="17"/>
       <c r="C726" s="5"/>
     </row>
     <row r="727" spans="2:3">
-      <c r="B727" s="18"/>
+      <c r="B727" s="17"/>
       <c r="C727" s="5"/>
     </row>
     <row r="728" spans="2:3">
-      <c r="B728" s="18"/>
+      <c r="B728" s="17"/>
       <c r="C728" s="5"/>
     </row>
     <row r="729" spans="2:3">
-      <c r="B729" s="18"/>
+      <c r="B729" s="17"/>
       <c r="C729" s="5"/>
     </row>
     <row r="730" spans="2:3">
-      <c r="B730" s="18"/>
+      <c r="B730" s="17"/>
       <c r="C730" s="5"/>
     </row>
     <row r="731" spans="2:3">
-      <c r="B731" s="18"/>
+      <c r="B731" s="17"/>
       <c r="C731" s="5"/>
     </row>
     <row r="732" spans="2:3">
-      <c r="B732" s="18"/>
+      <c r="B732" s="17"/>
       <c r="C732" s="5"/>
     </row>
     <row r="733" spans="2:3">
-      <c r="B733" s="18"/>
+      <c r="B733" s="17"/>
       <c r="C733" s="5"/>
     </row>
     <row r="734" spans="2:3">
-      <c r="B734" s="18"/>
+      <c r="B734" s="17"/>
       <c r="C734" s="5"/>
     </row>
     <row r="735" spans="2:3">
-      <c r="B735" s="18"/>
+      <c r="B735" s="17"/>
       <c r="C735" s="5"/>
     </row>
     <row r="736" spans="2:3">
-      <c r="B736" s="18"/>
+      <c r="B736" s="17"/>
       <c r="C736" s="5"/>
     </row>
     <row r="737" spans="2:3">
-      <c r="B737" s="18"/>
+      <c r="B737" s="17"/>
       <c r="C737" s="5"/>
     </row>
     <row r="738" spans="2:3">
-      <c r="B738" s="18"/>
+      <c r="B738" s="17"/>
       <c r="C738" s="5"/>
     </row>
     <row r="739" spans="2:3">
-      <c r="B739" s="18"/>
+      <c r="B739" s="17"/>
       <c r="C739" s="5"/>
     </row>
     <row r="740" spans="2:3">
-      <c r="B740" s="18"/>
+      <c r="B740" s="17"/>
       <c r="C740" s="5"/>
     </row>
     <row r="741" spans="2:3">
-      <c r="B741" s="18"/>
+      <c r="B741" s="17"/>
       <c r="C741" s="5"/>
     </row>
     <row r="742" spans="2:3">
-      <c r="B742" s="18"/>
+      <c r="B742" s="17"/>
       <c r="C742" s="5"/>
     </row>
     <row r="743" spans="2:3">
-      <c r="B743" s="18"/>
+      <c r="B743" s="17"/>
       <c r="C743" s="5"/>
     </row>
     <row r="744" spans="2:3">
-      <c r="B744" s="18"/>
+      <c r="B744" s="17"/>
       <c r="C744" s="5"/>
     </row>
     <row r="745" spans="2:3">
-      <c r="B745" s="18"/>
+      <c r="B745" s="17"/>
       <c r="C745" s="5"/>
     </row>
     <row r="746" spans="2:3">
-      <c r="B746" s="18"/>
+      <c r="B746" s="17"/>
       <c r="C746" s="5"/>
     </row>
     <row r="747" spans="2:3">
-      <c r="B747" s="18"/>
+      <c r="B747" s="17"/>
       <c r="C747" s="5"/>
     </row>
     <row r="748" spans="2:3">
-      <c r="B748" s="18"/>
+      <c r="B748" s="17"/>
       <c r="C748" s="5"/>
     </row>
     <row r="749" spans="2:3">
-      <c r="B749" s="18"/>
+      <c r="B749" s="17"/>
       <c r="C749" s="5"/>
     </row>
     <row r="750" spans="2:3">
-      <c r="B750" s="18"/>
+      <c r="B750" s="17"/>
       <c r="C750" s="5"/>
     </row>
     <row r="751" spans="2:3">
-      <c r="B751" s="18"/>
+      <c r="B751" s="17"/>
       <c r="C751" s="5"/>
     </row>
     <row r="752" spans="2:3">
-      <c r="B752" s="18"/>
+      <c r="B752" s="17"/>
       <c r="C752" s="5"/>
     </row>
     <row r="753" spans="2:3">
-      <c r="B753" s="18"/>
+      <c r="B753" s="17"/>
       <c r="C753" s="5"/>
     </row>
     <row r="754" spans="2:3">
-      <c r="B754" s="18"/>
+      <c r="B754" s="17"/>
       <c r="C754" s="5"/>
     </row>
     <row r="755" spans="2:3">
-      <c r="B755" s="18"/>
+      <c r="B755" s="17"/>
       <c r="C755" s="5"/>
     </row>
     <row r="756" spans="2:3">
-      <c r="B756" s="18"/>
+      <c r="B756" s="17"/>
       <c r="C756" s="5"/>
     </row>
     <row r="757" spans="2:3">
-      <c r="B757" s="18"/>
+      <c r="B757" s="17"/>
       <c r="C757" s="5"/>
     </row>
     <row r="758" spans="2:3">
-      <c r="B758" s="18"/>
+      <c r="B758" s="17"/>
       <c r="C758" s="5"/>
     </row>
     <row r="759" spans="2:3">
-      <c r="B759" s="18"/>
+      <c r="B759" s="17"/>
       <c r="C759" s="5"/>
     </row>
     <row r="760" spans="2:3">
-      <c r="B760" s="18"/>
+      <c r="B760" s="17"/>
       <c r="C760" s="5"/>
     </row>
     <row r="761" spans="2:3">
-      <c r="B761" s="18"/>
+      <c r="B761" s="17"/>
       <c r="C761" s="5"/>
     </row>
     <row r="762" spans="2:3">
-      <c r="B762" s="18"/>
+      <c r="B762" s="17"/>
       <c r="C762" s="5"/>
     </row>
     <row r="763" spans="2:3">
-      <c r="B763" s="18"/>
+      <c r="B763" s="17"/>
       <c r="C763" s="5"/>
     </row>
     <row r="764" spans="2:3">
-      <c r="B764" s="18"/>
+      <c r="B764" s="17"/>
       <c r="C764" s="5"/>
     </row>
     <row r="765" spans="2:3">
-      <c r="B765" s="18"/>
+      <c r="B765" s="17"/>
       <c r="C765" s="5"/>
     </row>
     <row r="766" spans="2:3">
-      <c r="B766" s="18"/>
+      <c r="B766" s="17"/>
       <c r="C766" s="5"/>
     </row>
     <row r="767" spans="2:3">
-      <c r="B767" s="18"/>
+      <c r="B767" s="17"/>
       <c r="C767" s="5"/>
     </row>
     <row r="768" spans="2:3">
-      <c r="B768" s="18"/>
+      <c r="B768" s="17"/>
       <c r="C768" s="5"/>
     </row>
     <row r="769" spans="2:3">
-      <c r="B769" s="18"/>
+      <c r="B769" s="17"/>
       <c r="C769" s="5"/>
     </row>
     <row r="770" spans="2:3">
-      <c r="B770" s="18"/>
+      <c r="B770" s="17"/>
       <c r="C770" s="5"/>
     </row>
     <row r="771" spans="2:3">
-      <c r="B771" s="18"/>
+      <c r="B771" s="17"/>
       <c r="C771" s="5"/>
     </row>
     <row r="772" spans="2:3">
-      <c r="B772" s="18"/>
+      <c r="B772" s="17"/>
       <c r="C772" s="5"/>
     </row>
     <row r="773" spans="2:3">
-      <c r="B773" s="18"/>
+      <c r="B773" s="17"/>
       <c r="C773" s="5"/>
     </row>
     <row r="774" spans="2:3">
-      <c r="B774" s="18"/>
+      <c r="B774" s="17"/>
       <c r="C774" s="5"/>
     </row>
     <row r="775" spans="2:3">
-      <c r="B775" s="18"/>
+      <c r="B775" s="17"/>
       <c r="C775" s="5"/>
     </row>
     <row r="776" spans="2:3">
-      <c r="B776" s="18"/>
+      <c r="B776" s="17"/>
       <c r="C776" s="5"/>
     </row>
     <row r="777" spans="2:3">
-      <c r="B777" s="18"/>
+      <c r="B777" s="17"/>
       <c r="C777" s="5"/>
     </row>
     <row r="778" spans="2:3">
-      <c r="B778" s="18"/>
+      <c r="B778" s="17"/>
       <c r="C778" s="5"/>
     </row>
     <row r="779" spans="2:3">
-      <c r="B779" s="18"/>
+      <c r="B779" s="17"/>
       <c r="C779" s="5"/>
     </row>
     <row r="780" spans="2:3">
-      <c r="B780" s="18"/>
+      <c r="B780" s="17"/>
       <c r="C780" s="5"/>
     </row>
     <row r="781" spans="2:3">
-      <c r="B781" s="18"/>
+      <c r="B781" s="17"/>
       <c r="C781" s="5"/>
     </row>
     <row r="782" spans="2:3">
-      <c r="B782" s="18"/>
+      <c r="B782" s="17"/>
       <c r="C782" s="5"/>
     </row>
     <row r="783" spans="2:3">
-      <c r="B783" s="18"/>
+      <c r="B783" s="17"/>
       <c r="C783" s="5"/>
     </row>
     <row r="784" spans="2:3">
-      <c r="B784" s="18"/>
+      <c r="B784" s="17"/>
       <c r="C784" s="5"/>
     </row>
     <row r="785" spans="2:3">
-      <c r="B785" s="18"/>
+      <c r="B785" s="17"/>
       <c r="C785" s="5"/>
     </row>
     <row r="786" spans="2:3">
-      <c r="B786" s="18"/>
+      <c r="B786" s="17"/>
       <c r="C786" s="5"/>
     </row>
     <row r="787" spans="2:3">
-      <c r="B787" s="18"/>
+      <c r="B787" s="17"/>
       <c r="C787" s="5"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="21"/>
+      <c r="B788" s="20"/>
       <c r="C788" s="5"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="21"/>
+      <c r="B789" s="20"/>
       <c r="C789" s="5"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="21"/>
+      <c r="B790" s="20"/>
       <c r="C790" s="5"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="21"/>
+      <c r="B791" s="20"/>
       <c r="C791" s="5"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="21"/>
+      <c r="B792" s="20"/>
       <c r="C792" s="5"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="21"/>
+      <c r="B793" s="20"/>
       <c r="C793" s="5"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="21"/>
+      <c r="B794" s="20"/>
       <c r="C794" s="5"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="21"/>
+      <c r="B795" s="20"/>
       <c r="C795" s="5"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="21"/>
+      <c r="B796" s="20"/>
       <c r="C796" s="5"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="21"/>
+      <c r="B797" s="20"/>
       <c r="C797" s="5"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="21"/>
+      <c r="B798" s="20"/>
       <c r="C798" s="5"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="21"/>
+      <c r="B799" s="20"/>
       <c r="C799" s="5"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="21"/>
+      <c r="B800" s="20"/>
       <c r="C800" s="5"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="21"/>
+      <c r="B801" s="20"/>
       <c r="C801" s="5"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="21"/>
+      <c r="B802" s="20"/>
       <c r="C802" s="5"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="21"/>
+      <c r="B803" s="20"/>
       <c r="C803" s="5"/>
     </row>
     <row r="804" spans="3:3">
@@ -4611,7 +4601,7 @@
       <c r="C823" s="5"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="28"/>
+      <c r="C824" s="27"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="5"/>
@@ -4863,28 +4853,28 @@
       <c r="C907" s="5"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="25"/>
+      <c r="C908" s="24"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="25"/>
+      <c r="C909" s="24"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="25"/>
+      <c r="C910" s="24"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="25"/>
+      <c r="C911" s="24"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="25"/>
+      <c r="C912" s="24"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="25"/>
+      <c r="C913" s="24"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="25"/>
+      <c r="C914" s="24"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="25"/>
+      <c r="C915" s="24"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="5"/>
@@ -5175,64 +5165,64 @@
       <c r="C1011" s="5"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="25"/>
+      <c r="C1012" s="24"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="25"/>
+      <c r="C1013" s="24"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="25"/>
+      <c r="C1014" s="24"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="25"/>
+      <c r="C1015" s="24"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="25"/>
+      <c r="C1016" s="24"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="25"/>
+      <c r="C1017" s="24"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="25"/>
+      <c r="C1018" s="24"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="25"/>
+      <c r="C1019" s="24"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="25"/>
+      <c r="C1020" s="24"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="25"/>
+      <c r="C1021" s="24"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="25"/>
+      <c r="C1022" s="24"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="25"/>
+      <c r="C1023" s="24"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="25"/>
+      <c r="C1024" s="24"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="25"/>
+      <c r="C1025" s="24"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="25"/>
+      <c r="C1026" s="24"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="25"/>
+      <c r="C1027" s="24"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="25"/>
+      <c r="C1028" s="24"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="25"/>
+      <c r="C1029" s="24"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="25"/>
+      <c r="C1030" s="24"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="25"/>
+      <c r="C1031" s="24"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="5"/>
@@ -5265,178 +5255,178 @@
       <c r="C1041" s="5"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="25"/>
+      <c r="C1042" s="24"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="25"/>
+      <c r="C1043" s="24"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="25"/>
+      <c r="C1044" s="24"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="25"/>
+      <c r="C1045" s="24"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="19"/>
+      <c r="C1046" s="18"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="19"/>
+      <c r="C1047" s="18"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="19"/>
+      <c r="C1048" s="18"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="19"/>
+      <c r="C1049" s="18"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="19"/>
+      <c r="C1050" s="18"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="19"/>
+      <c r="C1051" s="18"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="19"/>
+      <c r="C1052" s="18"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="19"/>
+      <c r="C1053" s="18"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="19"/>
+      <c r="C1054" s="18"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="19"/>
+      <c r="C1055" s="18"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="19"/>
+      <c r="C1056" s="18"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="19"/>
+      <c r="C1057" s="18"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="19"/>
+      <c r="C1058" s="18"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="19"/>
+      <c r="C1059" s="18"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="19"/>
+      <c r="C1060" s="18"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="19"/>
+      <c r="C1061" s="18"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="19"/>
+      <c r="C1062" s="18"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="19"/>
+      <c r="C1063" s="18"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="19"/>
+      <c r="C1064" s="18"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="19"/>
+      <c r="C1065" s="18"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="19"/>
+      <c r="C1066" s="18"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="19"/>
+      <c r="C1067" s="18"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="19"/>
+      <c r="C1068" s="18"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="19"/>
+      <c r="C1069" s="18"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="19"/>
+      <c r="C1070" s="18"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="19"/>
+      <c r="C1071" s="18"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="19"/>
+      <c r="C1072" s="18"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="19"/>
+      <c r="C1073" s="18"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="19"/>
+      <c r="C1074" s="18"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="19"/>
+      <c r="C1075" s="18"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="19"/>
+      <c r="C1076" s="18"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="19"/>
+      <c r="C1077" s="18"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="19"/>
+      <c r="C1078" s="18"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="19"/>
+      <c r="C1079" s="18"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="19"/>
+      <c r="C1080" s="18"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="19"/>
+      <c r="C1081" s="18"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="19"/>
+      <c r="C1082" s="18"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="19"/>
+      <c r="C1083" s="18"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="19"/>
+      <c r="C1084" s="18"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="19"/>
+      <c r="C1085" s="18"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="19"/>
+      <c r="C1086" s="18"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="19"/>
+      <c r="C1087" s="18"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="19"/>
+      <c r="C1088" s="18"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="19"/>
+      <c r="C1089" s="18"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="19"/>
+      <c r="C1090" s="18"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="19"/>
+      <c r="C1091" s="18"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="19"/>
+      <c r="C1092" s="18"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="19"/>
+      <c r="C1093" s="18"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="19"/>
+      <c r="C1094" s="18"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="19"/>
+      <c r="C1095" s="18"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="19"/>
+      <c r="C1096" s="18"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="19"/>
+      <c r="C1097" s="18"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="19"/>
+      <c r="C1098" s="18"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="19"/>
+      <c r="C1099" s="18"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="5"/>
@@ -5448,13 +5438,13 @@
       <c r="C1102" s="5"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="19"/>
+      <c r="C1103" s="18"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="19"/>
+      <c r="C1104" s="18"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="19"/>
+      <c r="C1105" s="18"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="5"/>
@@ -5463,10 +5453,10 @@
       <c r="C1107" s="5"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="19"/>
+      <c r="C1108" s="18"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="19"/>
+      <c r="C1109" s="18"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="5"/>
@@ -5475,10 +5465,10 @@
       <c r="C1111" s="5"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="19"/>
+      <c r="C1112" s="18"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="19"/>
+      <c r="C1113" s="18"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="5"/>
@@ -5487,10 +5477,10 @@
       <c r="C1115" s="5"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="19"/>
+      <c r="C1116" s="18"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="19"/>
+      <c r="C1117" s="18"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="5"/>
@@ -5832,7 +5822,7 @@
       <c r="C1230" s="5"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="29"/>
+      <c r="C1231" s="28"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="5"/>
@@ -5847,49 +5837,49 @@
       <c r="C1235" s="5"/>
     </row>
     <row r="1236" spans="3:3">
-      <c r="C1236" s="8"/>
+      <c r="C1236" s="6"/>
     </row>
     <row r="1237" spans="3:3">
-      <c r="C1237" s="8"/>
+      <c r="C1237" s="6"/>
     </row>
     <row r="1238" spans="3:3">
-      <c r="C1238" s="8"/>
+      <c r="C1238" s="6"/>
     </row>
     <row r="1239" spans="3:3">
-      <c r="C1239" s="8"/>
+      <c r="C1239" s="6"/>
     </row>
     <row r="1240" spans="3:3">
-      <c r="C1240" s="8"/>
+      <c r="C1240" s="6"/>
     </row>
     <row r="1241" spans="3:3">
-      <c r="C1241" s="8"/>
+      <c r="C1241" s="6"/>
     </row>
     <row r="1242" spans="3:3">
-      <c r="C1242" s="8"/>
+      <c r="C1242" s="6"/>
     </row>
     <row r="1243" spans="3:3">
-      <c r="C1243" s="8"/>
+      <c r="C1243" s="6"/>
     </row>
     <row r="1244" spans="3:3">
-      <c r="C1244" s="8"/>
+      <c r="C1244" s="6"/>
     </row>
     <row r="1245" spans="3:3">
-      <c r="C1245" s="8"/>
+      <c r="C1245" s="6"/>
     </row>
     <row r="1246" spans="3:3">
-      <c r="C1246" s="8"/>
+      <c r="C1246" s="6"/>
     </row>
     <row r="1247" spans="3:3">
-      <c r="C1247" s="8"/>
+      <c r="C1247" s="6"/>
     </row>
     <row r="1248" spans="3:3">
-      <c r="C1248" s="8"/>
+      <c r="C1248" s="6"/>
     </row>
     <row r="1249" spans="3:3">
-      <c r="C1249" s="8"/>
+      <c r="C1249" s="6"/>
     </row>
     <row r="1250" spans="3:3">
-      <c r="C1250" s="8"/>
+      <c r="C1250" s="6"/>
     </row>
     <row r="1251" spans="3:3">
       <c r="C1251" s="5"/>
@@ -6213,163 +6203,163 @@
       <c r="C1357" s="5"/>
     </row>
     <row r="1358" spans="3:3">
-      <c r="C1358" s="18"/>
+      <c r="C1358" s="17"/>
     </row>
     <row r="1359" spans="3:3">
-      <c r="C1359" s="18"/>
+      <c r="C1359" s="17"/>
     </row>
     <row r="1360" spans="3:3">
-      <c r="C1360" s="18"/>
+      <c r="C1360" s="17"/>
     </row>
     <row r="1361" spans="3:3">
-      <c r="C1361" s="18"/>
+      <c r="C1361" s="17"/>
     </row>
     <row r="1362" spans="3:3">
-      <c r="C1362" s="18"/>
+      <c r="C1362" s="17"/>
     </row>
     <row r="1363" spans="3:3">
-      <c r="C1363" s="18"/>
+      <c r="C1363" s="17"/>
     </row>
     <row r="1364" spans="3:3">
-      <c r="C1364" s="18"/>
+      <c r="C1364" s="17"/>
     </row>
     <row r="1365" spans="3:3">
-      <c r="C1365" s="18"/>
+      <c r="C1365" s="17"/>
     </row>
     <row r="1366" spans="3:3">
-      <c r="C1366" s="18"/>
+      <c r="C1366" s="17"/>
     </row>
     <row r="1367" spans="3:3">
-      <c r="C1367" s="18"/>
+      <c r="C1367" s="17"/>
     </row>
     <row r="1368" spans="3:3">
-      <c r="C1368" s="18"/>
+      <c r="C1368" s="17"/>
     </row>
     <row r="1369" spans="3:3">
-      <c r="C1369" s="18"/>
+      <c r="C1369" s="17"/>
     </row>
     <row r="1370" spans="3:3">
-      <c r="C1370" s="18"/>
+      <c r="C1370" s="17"/>
     </row>
     <row r="1371" spans="3:3">
-      <c r="C1371" s="18"/>
+      <c r="C1371" s="17"/>
     </row>
     <row r="1372" spans="3:3">
-      <c r="C1372" s="18"/>
+      <c r="C1372" s="17"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="25"/>
+      <c r="C1373" s="24"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="25"/>
+      <c r="C1374" s="24"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="25"/>
+      <c r="C1375" s="24"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="25"/>
+      <c r="C1376" s="24"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="25"/>
+      <c r="C1377" s="24"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="25"/>
+      <c r="C1378" s="24"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="25"/>
+      <c r="C1379" s="24"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="25"/>
+      <c r="C1380" s="24"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="25"/>
+      <c r="C1381" s="24"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="25"/>
+      <c r="C1382" s="24"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="25"/>
+      <c r="C1383" s="24"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="25"/>
+      <c r="C1384" s="24"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="25"/>
+      <c r="C1385" s="24"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="25"/>
+      <c r="C1386" s="24"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="25"/>
+      <c r="C1387" s="24"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="25"/>
+      <c r="C1388" s="24"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="25"/>
+      <c r="C1389" s="24"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="25"/>
+      <c r="C1390" s="24"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="25"/>
+      <c r="C1391" s="24"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="25"/>
+      <c r="C1392" s="24"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="25"/>
+      <c r="C1393" s="24"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="25"/>
+      <c r="C1394" s="24"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="25"/>
+      <c r="C1395" s="24"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="25"/>
+      <c r="C1396" s="24"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="25"/>
+      <c r="C1397" s="24"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="25"/>
+      <c r="C1398" s="24"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="25"/>
+      <c r="C1399" s="24"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="25"/>
+      <c r="C1400" s="24"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="25"/>
+      <c r="C1401" s="24"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="25"/>
+      <c r="C1402" s="24"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="25"/>
+      <c r="C1403" s="24"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="25"/>
+      <c r="C1404" s="24"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="25"/>
+      <c r="C1405" s="24"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="25"/>
+      <c r="C1406" s="24"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="25"/>
+      <c r="C1407" s="24"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="25"/>
+      <c r="C1408" s="24"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="25"/>
+      <c r="C1409" s="24"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="25"/>
+      <c r="C1410" s="24"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="5"/>
@@ -6819,22 +6809,22 @@
       <c r="C1559" s="5"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="20"/>
+      <c r="C1560" s="19"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="20"/>
+      <c r="C1561" s="19"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="20"/>
+      <c r="C1562" s="19"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="20"/>
+      <c r="C1563" s="19"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="20"/>
+      <c r="C1564" s="19"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="20"/>
+      <c r="C1565" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6889,211 +6879,211 @@
       </c>
     </row>
     <row r="2" spans="3:5">
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="3:5">
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="3:5">
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="3:5">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="3:5">
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="19"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="19"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="19"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="19"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="19"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="19"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="19"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="10"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F60">
@@ -7136,54 +7126,54 @@
       </c>
     </row>
     <row r="2" spans="3:3">
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="D12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7198,7 +7188,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7245,7 +7235,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="7">
-        <v>1000648</v>
+        <v>1000649</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -7264,7 +7254,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7">
-        <v>1000648</v>
+        <v>1000649</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -7287,21 +7277,21 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -7398,10 +7388,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D26">
